--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -567,15 +567,15 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -596,15 +596,15 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -625,15 +625,15 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -654,15 +654,15 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -683,15 +683,15 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -712,15 +712,15 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -741,15 +741,15 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -770,15 +770,15 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -799,15 +799,15 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -828,15 +828,15 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -857,15 +857,15 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -886,15 +886,15 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -915,15 +915,15 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -944,15 +944,15 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -973,15 +973,15 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -1002,15 +1002,15 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학식입니다.
+          <t xml:space="preserve">2024년 10월 31일 학식입니다.
 학색식당(기숙사 식당)
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일
+점심 : 얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료
+저녁 : 들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일
 교직원식당
-아침 : 계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀
-점심 : 얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치
-저녁 : 얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치
+아침 : 크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵
+점심 : 얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치
+저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치
 </t>
         </is>
       </c>
@@ -3801,10 +3801,10 @@
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학교 주변 날씨입니다
-온도 : 16.49
+          <t xml:space="preserve">2024년 10월 31일 학교 주변 날씨입니다
+온도 : 17.82
 날씨 : 맑음
-최저 기온 : 16.16 최고 기온 : 18.69
+최저 기온 : 15.76 최고 기온 : 19.94
 미세먼지 : 17
 </t>
         </is>
@@ -3826,10 +3826,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학교 주변 날씨입니다
-온도 : 16.49
+          <t xml:space="preserve">2024년 10월 31일 학교 주변 날씨입니다
+온도 : 17.82
 날씨 : 맑음
-최저 기온 : 16.16 최고 기온 : 18.69
+최저 기온 : 15.76 최고 기온 : 19.94
 미세먼지 : 17
 </t>
         </is>
@@ -3851,10 +3851,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학교 주변 날씨입니다
-온도 : 16.49
+          <t xml:space="preserve">2024년 10월 31일 학교 주변 날씨입니다
+온도 : 17.82
 날씨 : 맑음
-최저 기온 : 16.16 최고 기온 : 18.69
+최저 기온 : 15.76 최고 기온 : 19.94
 미세먼지 : 17
 </t>
         </is>
@@ -3876,10 +3876,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학교 주변 날씨입니다
-온도 : 16.49
+          <t xml:space="preserve">2024년 10월 31일 학교 주변 날씨입니다
+온도 : 17.82
 날씨 : 맑음
-최저 기온 : 16.16 최고 기온 : 18.69
+최저 기온 : 15.76 최고 기온 : 19.94
 미세먼지 : 17
 </t>
         </is>
@@ -3901,10 +3901,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학교 주변 날씨입니다
-온도 : 16.49
+          <t xml:space="preserve">2024년 10월 31일 학교 주변 날씨입니다
+온도 : 17.82
 날씨 : 맑음
-최저 기온 : 16.16 최고 기온 : 18.69
+최저 기온 : 15.76 최고 기온 : 19.94
 미세먼지 : 17
 </t>
         </is>
@@ -3926,10 +3926,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학교 주변 날씨입니다
-온도 : 16.49
+          <t xml:space="preserve">2024년 10월 31일 학교 주변 날씨입니다
+온도 : 17.82
 날씨 : 맑음
-최저 기온 : 16.16 최고 기온 : 18.69
+최저 기온 : 15.76 최고 기온 : 19.94
 미세먼지 : 17
 </t>
         </is>
@@ -3951,10 +3951,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학교 주변 날씨입니다
-온도 : 16.49
+          <t xml:space="preserve">2024년 10월 31일 학교 주변 날씨입니다
+온도 : 17.82
 날씨 : 맑음
-최저 기온 : 16.16 최고 기온 : 18.69
+최저 기온 : 15.76 최고 기온 : 19.94
 미세먼지 : 17
 </t>
         </is>
@@ -3976,10 +3976,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 12일 학교 주변 날씨입니다
-온도 : 16.49
+          <t xml:space="preserve">2024년 10월 31일 학교 주변 날씨입니다
+온도 : 17.82
 날씨 : 맑음
-최저 기온 : 16.16 최고 기온 : 18.69
+최저 기온 : 15.76 최고 기온 : 19.94
 미세먼지 : 17
 </t>
         </is>
@@ -4001,10 +4001,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 13일 학교 주변 날씨입니다
-온도 : 21.23
+          <t xml:space="preserve">2024년 11월 1일 학교 주변 날씨입니다
+온도 : 17.88
 날씨 : 온흐림
-최저 기온 : 18.86 최고 기온 : 24.35
+최저 기온 : 15.81 최고 기온 : 20.4
 미세먼지 : 26
 </t>
         </is>
@@ -4026,10 +4026,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 13일 학교 주변 날씨입니다
-온도 : 21.23
+          <t xml:space="preserve">2024년 11월 1일 학교 주변 날씨입니다
+온도 : 17.88
 날씨 : 온흐림
-최저 기온 : 18.86 최고 기온 : 24.35
+최저 기온 : 15.81 최고 기온 : 20.4
 미세먼지 : 26
 </t>
         </is>
@@ -4051,10 +4051,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 13일 학교 주변 날씨입니다
-온도 : 21.23
+          <t xml:space="preserve">2024년 11월 1일 학교 주변 날씨입니다
+온도 : 17.88
 날씨 : 온흐림
-최저 기온 : 18.86 최고 기온 : 24.35
+최저 기온 : 15.81 최고 기온 : 20.4
 미세먼지 : 26
 </t>
         </is>
@@ -4076,10 +4076,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 13일 학교 주변 날씨입니다
-온도 : 21.23
+          <t xml:space="preserve">2024년 11월 1일 학교 주변 날씨입니다
+온도 : 17.88
 날씨 : 온흐림
-최저 기온 : 18.86 최고 기온 : 24.35
+최저 기온 : 15.81 최고 기온 : 20.4
 미세먼지 : 26
 </t>
         </is>
@@ -4101,10 +4101,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 13일 학교 주변 날씨입니다
-온도 : 21.23
+          <t xml:space="preserve">2024년 11월 1일 학교 주변 날씨입니다
+온도 : 17.88
 날씨 : 온흐림
-최저 기온 : 18.86 최고 기온 : 24.35
+최저 기온 : 15.81 최고 기온 : 20.4
 미세먼지 : 26
 </t>
         </is>
@@ -4126,10 +4126,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 13일 학교 주변 날씨입니다
-온도 : 21.23
+          <t xml:space="preserve">2024년 11월 1일 학교 주변 날씨입니다
+온도 : 17.88
 날씨 : 온흐림
-최저 기온 : 18.86 최고 기온 : 24.35
+최저 기온 : 15.81 최고 기온 : 20.4
 미세먼지 : 26
 </t>
         </is>
@@ -4151,10 +4151,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 10월 13일 학교 주변 날씨입니다
-온도 : 21.23
+          <t xml:space="preserve">2024년 11월 1일 학교 주변 날씨입니다
+온도 : 17.88
 날씨 : 온흐림
-최저 기온 : 18.86 최고 기온 : 24.35
+최저 기온 : 15.81 최고 기온 : 20.4
 미세먼지 : 26
 </t>
         </is>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -595,466 +595,466 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
+점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="207" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>오늘 아침을 알려줘</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="207" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>오늘 아침을 알려줘</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="207" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>오늘 점심을 알려줘</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="207" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>오늘 점심을 알려줘</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="207" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>오늘 저녁을 알려줘</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="207" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>오늘 저녁을 알려줘</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="207" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>오늘 학식 뭐나와</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="207" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>오늘 학식 뭐나와</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="207" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>오늘 교내 식당 메뉴</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="207" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>오늘 교내 식당 메뉴</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="207" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>교내 식당 메뉴 알려줘</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="207" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>교내 식당 메뉴 알려줘</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="207" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>교직원 식당 메뉴 알려줘</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="207" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>교직원 식당 메뉴 알려줘</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="207" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>조식 알려줘</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="207" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>조식 알려줘</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="207" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>중식 알려줘</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="207" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>중식 알려줘</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="207" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>석식 알려줘</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="207" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>석식 알려줘</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="207" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>오늘 식사 메뉴</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="207" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>오늘 식사 메뉴</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="207" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>학생 식당에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="207" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>학생 식당에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="207" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>교직원 식당에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="207" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>교직원 식당에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="207" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>학생 식당 위치에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="207" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>학생 식당 위치에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="152.25" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>학식</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>교직원 식당 위치를 알려줘</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"2024년 11월 12일 학식입니다. &lt;br&gt;
+학색식당(기숙사 식당)  &lt;br&gt;
 아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
 점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
-</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="152.25" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>학식</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>교직원 식당 위치를 알려줘</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"2024년 11월 11일 학식입니다. &lt;br&gt;
-학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-점심 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일  &lt;br&gt;
+저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치  &lt;br&gt;
+아침 : 학식 정보 없음  &lt;br&gt;
+점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
 "
 </t>
         </is>
@@ -4126,10 +4126,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 14.25 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.53 최고 기온 : 16.17 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 12.22 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4150,10 +4150,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 14.25 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.53 최고 기온 : 16.17 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 12.22 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4174,10 +4174,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 14.25 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.53 최고 기온 : 16.17 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 12.22 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4198,10 +4198,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 14.25 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.53 최고 기온 : 16.17 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 12.22 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4222,10 +4222,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 14.25 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.53 최고 기온 : 16.17 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 12.22 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4246,10 +4246,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 14.25 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.53 최고 기온 : 16.17 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 12.22 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4270,10 +4270,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 14.25 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.53 최고 기온 : 16.17 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 12.22 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4294,10 +4294,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 11일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 14.25 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.53 최고 기온 : 16.17 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 12.22 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4318,10 +4318,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.09 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 12.24 최고 기온 : 18.36 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.36 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4342,10 +4342,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.09 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 12.24 최고 기온 : 18.36 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.36 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4366,10 +4366,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.09 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 12.24 최고 기온 : 18.36 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.36 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4390,10 +4390,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.09 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 12.24 최고 기온 : 18.36 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.36 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4414,10 +4414,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.09 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 12.24 최고 기온 : 18.36 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.36 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4438,10 +4438,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.09 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 12.24 최고 기온 : 18.36 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.36 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4462,10 +4462,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.09 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 12.24 최고 기온 : 18.36 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.36 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -595,16 +595,16 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -625,16 +625,16 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -655,16 +655,16 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -685,16 +685,16 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -715,16 +715,16 @@
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -745,16 +745,16 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -775,16 +775,16 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -805,16 +805,16 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -835,16 +835,16 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -865,16 +865,16 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -895,16 +895,16 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -925,16 +925,16 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -955,16 +955,16 @@
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -985,16 +985,16 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1015,16 +1015,16 @@
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1045,16 +1045,16 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 12일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사  &lt;br&gt;
-점심 : 얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치  &lt;br&gt;
-저녁 : 우동장국, 쌀밥, 돈까스덮밥, 고기완자조림, 실곤약무침, 배추김치  &lt;br&gt;
+아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
+저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
-아침 : 학식 정보 없음  &lt;br&gt;
-점심 : 순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
-저녁 : 얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로  &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
+저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 "
 </t>
         </is>
@@ -1207,29 +1207,9 @@
       </c>
       <c r="C24" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
+          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성자 : 한여은
-작성일자 : 2024.08.22
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성자 : 조현영
-작성일자 : 2024.08.21
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성자 : 조현영
-작성일자 : 2024.08.21
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성자 : 한여은
-작성일자 : 2024.08.20
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성자 : 컴퓨터공학과
-작성일자 : 2024.08.19
-</t>
+제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
       <c r="D24" s="4" t="n"/>
@@ -1250,29 +1230,9 @@
       </c>
       <c r="C25" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
+          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성자 : 한여은
-작성일자 : 2024.08.22
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성자 : 조현영
-작성일자 : 2024.08.21
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성자 : 조현영
-작성일자 : 2024.08.21
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성자 : 한여은
-작성일자 : 2024.08.20
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성자 : 컴퓨터공학과
-작성일자 : 2024.08.19
-</t>
+제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
       <c r="E25" s="6" t="n">
@@ -1292,29 +1252,9 @@
       </c>
       <c r="C26" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
+          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성자 : 한여은
-작성일자 : 2024.08.22
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성자 : 조현영
-작성일자 : 2024.08.21
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성자 : 조현영
-작성일자 : 2024.08.21
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성자 : 한여은
-작성일자 : 2024.08.20
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성자 : 컴퓨터공학과
-작성일자 : 2024.08.19
-</t>
+제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
       <c r="E26" s="6" t="n">
@@ -1334,29 +1274,9 @@
       </c>
       <c r="C27" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
+          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-제목 : 2024-2학기 노트북 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
-작성자 : 한여은
-작성일자 : 2024.08.22
-제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
-작성자 : 조현영
-작성일자 : 2024.08.21
-제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
-작성자 : 조현영
-작성일자 : 2024.08.21
-제목 : 2024-2학기 태블릿 사전신청 대여자 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
-작성자 : 한여은
-작성일자 : 2024.08.20
-제목 : 24-2 졸업프로젝트1 분반배정결과 안내
-링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
-작성자 : 컴퓨터공학과
-작성일자 : 2024.08.19
-</t>
+제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
       <c r="E27" s="6" t="n">
@@ -4126,10 +4046,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 12.22 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.59 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4150,10 +4070,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 12.22 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.59 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4174,10 +4094,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 12.22 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.59 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4198,10 +4118,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 12.22 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.59 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4222,10 +4142,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 12.22 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.59 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4246,10 +4166,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 12.22 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.59 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4270,10 +4190,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 12.22 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.59 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4294,10 +4214,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 12일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 12.22 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 11.9 최고 기온 : 14.81 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.59 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4318,10 +4238,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.36 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 17.75 &lt;br&gt;
+날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
+최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4342,10 +4262,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.36 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 17.75 &lt;br&gt;
+날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
+최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4366,10 +4286,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.36 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 17.75 &lt;br&gt;
+날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
+최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4390,10 +4310,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.36 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 17.75 &lt;br&gt;
+날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
+최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4414,10 +4334,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.36 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 17.75 &lt;br&gt;
+날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
+최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4438,10 +4358,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.36 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 17.75 &lt;br&gt;
+날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
+최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4462,10 +4382,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 13일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.36 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 13.14 최고 기온 : 18.38 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 17.75 &lt;br&gt;
+날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
+최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="9">
     <font>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -46,15 +46,9 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Malgun Gothic"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
@@ -64,28 +58,25 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <name val="Malgun Gothic"/>
-      <charset val="129"/>
+      <name val="돋움체"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="129"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -94,12 +85,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffff00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf6c6ad"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb4e5a2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,11 +114,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -135,49 +150,75 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -256,10 +297,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -297,71 +338,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,7 +430,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -412,11 +453,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -425,13 +466,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -441,7 +482,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -450,7 +491,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -459,7 +500,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -467,10 +508,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -540,19 +581,19 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24.5" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="53.5" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="52" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="33.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12.5" bestFit="1" customWidth="1" style="15" min="5" max="5"/>
+    <col width="24.57642857142857" bestFit="1" customWidth="1" style="26" min="1" max="1"/>
+    <col width="53.57642857142857" bestFit="1" customWidth="1" style="26" min="2" max="2"/>
+    <col width="47.57642857142857" bestFit="1" customWidth="1" style="26" min="3" max="3"/>
+    <col width="44.57642857142857" bestFit="1" customWidth="1" style="26" min="4" max="4"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="27" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -582,7 +623,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="181.5" customHeight="1">
+    <row r="2" ht="303" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>학식</t>
@@ -608,11 +649,12 @@
 </t>
         </is>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="207" customHeight="1">
+      <c r="D2" s="26" t="n"/>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="303" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>학식</t>
@@ -623,7 +665,7 @@
           <t>오늘 아침을 알려줘</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -638,11 +680,12 @@
 </t>
         </is>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="207" customHeight="1">
+      <c r="D3" s="26" t="n"/>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="303" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>학식</t>
@@ -653,7 +696,7 @@
           <t>오늘 점심을 알려줘</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -668,7 +711,8 @@
 </t>
         </is>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="D4" s="26" t="n"/>
+      <c r="E4" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -683,7 +727,7 @@
           <t>오늘 저녁을 알려줘</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -698,7 +742,8 @@
 </t>
         </is>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="26" t="n"/>
+      <c r="E5" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -713,7 +758,7 @@
           <t>오늘 학식 뭐나와</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -728,7 +773,8 @@
 </t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="D6" s="26" t="n"/>
+      <c r="E6" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -743,7 +789,7 @@
           <t>오늘 교내 식당 메뉴</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -758,7 +804,8 @@
 </t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="D7" s="26" t="n"/>
+      <c r="E7" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -773,7 +820,7 @@
           <t>교내 식당 메뉴 알려줘</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -788,7 +835,8 @@
 </t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="D8" s="26" t="n"/>
+      <c r="E8" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -803,7 +851,7 @@
           <t>교직원 식당 메뉴 알려줘</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -818,7 +866,8 @@
 </t>
         </is>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="D9" s="26" t="n"/>
+      <c r="E9" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,7 +882,7 @@
           <t>조식 알려줘</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -848,7 +897,8 @@
 </t>
         </is>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="D10" s="26" t="n"/>
+      <c r="E10" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -863,7 +913,7 @@
           <t>중식 알려줘</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -878,7 +928,8 @@
 </t>
         </is>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="D11" s="26" t="n"/>
+      <c r="E11" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -893,7 +944,7 @@
           <t>석식 알려줘</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -908,7 +959,8 @@
 </t>
         </is>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="D12" s="26" t="n"/>
+      <c r="E12" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -923,7 +975,7 @@
           <t>오늘 식사 메뉴</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -938,7 +990,8 @@
 </t>
         </is>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="D13" s="26" t="n"/>
+      <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -953,7 +1006,7 @@
           <t>학생 식당에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -968,7 +1021,8 @@
 </t>
         </is>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="D14" s="26" t="n"/>
+      <c r="E14" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,7 +1037,7 @@
           <t>교직원 식당에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -998,7 +1052,8 @@
 </t>
         </is>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="D15" s="26" t="n"/>
+      <c r="E15" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,7 +1068,7 @@
           <t>학생 식당 위치에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
@@ -1028,7 +1083,8 @@
 </t>
         </is>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="D16" s="26" t="n"/>
+      <c r="E16" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1059,11 +1115,12 @@
 </t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
+      <c r="D17" s="26" t="n"/>
+      <c r="E17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="25" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
@@ -1084,11 +1141,11 @@
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1">
+    <row r="19" ht="25" customHeight="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
@@ -1099,16 +1156,17 @@
           <t>교내 연락처 검색하고 싶어</t>
         </is>
       </c>
+      <c r="C19" s="26" t="n"/>
       <c r="D19" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1">
+    <row r="20" ht="25" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
@@ -1130,11 +1188,11 @@
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
+    <row r="21" ht="25" customHeight="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
@@ -1145,16 +1203,17 @@
           <t>교수님 연락처 검색하고 싶어</t>
         </is>
       </c>
+      <c r="C21" s="26" t="n"/>
       <c r="D21" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
+    <row r="22" ht="25" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
@@ -1165,16 +1224,17 @@
           <t>사무실 번호 검색하고 싶어</t>
         </is>
       </c>
+      <c r="C22" s="26" t="n"/>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" ht="17.25" customHeight="1">
+    <row r="23" ht="25" customHeight="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
           <t>연락처</t>
@@ -1185,27 +1245,28 @@
           <t>전화번호 검색하고 싶어</t>
         </is>
       </c>
+      <c r="C23" s="26" t="n"/>
       <c r="D23" s="4" t="inlineStr">
         <is>
           <t>부서명, 교직원/교수님</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="17.25" customHeight="1">
+    <row r="24" ht="25" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>공지사항</t>
         </is>
       </c>
-      <c r="C24" s="16" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
@@ -1213,11 +1274,11 @@
         </is>
       </c>
       <c r="D24" s="4" t="n"/>
-      <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="17.25" customHeight="1">
+      <c r="E24" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="25" customHeight="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
@@ -1228,18 +1289,19 @@
           <t>학교 공지사항을 보고싶어</t>
         </is>
       </c>
-      <c r="C25" s="16" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
 제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="17.25" customHeight="1">
+      <c r="D25" s="26" t="n"/>
+      <c r="E25" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="25" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
@@ -1250,18 +1312,19 @@
           <t>새로 올라온 공지사항을 보고싶어</t>
         </is>
       </c>
-      <c r="C26" s="16" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
 제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" customHeight="1">
+      <c r="D26" s="26" t="n"/>
+      <c r="E26" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="25" customHeight="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
           <t>공지사항</t>
@@ -1272,18 +1335,19 @@
           <t>공지사항 새로 올라온 게 있어?</t>
         </is>
       </c>
-      <c r="C27" s="16" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
 제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="17.25" customHeight="1">
+      <c r="D27" s="26" t="n"/>
+      <c r="E27" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="25" customHeight="1">
       <c r="A28" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1294,7 +1358,7 @@
           <t>학교 편의시설에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C28" s="16" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>학교 내 편의시설 목록은 다음과 같습니다. &lt;br&gt;
 &lt;학교 편의시설 목록&gt; &lt;br&gt;
@@ -1314,11 +1378,12 @@
 기숙사 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" customHeight="1">
+      <c r="D28" s="26" t="n"/>
+      <c r="E28" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="25" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1329,7 +1394,7 @@
           <t>학교 카페에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C29" s="16" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>학교 내 카페 목록은 다음과 같습니다. &lt;br&gt;
 &lt;br&gt;
@@ -1343,11 +1408,12 @@
 카페 나무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D29" s="26" t="n"/>
+      <c r="E29" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A30" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1358,7 +1424,7 @@
           <t>학교 베이커리에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C30" s="16" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>학교 내 카페 목록은 다음과 같습니다. &lt;br&gt;
 &lt;br&gt;
@@ -1372,12 +1438,12 @@
 카페 나무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D30" s="10" t="n"/>
-      <c r="E30" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A31" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1388,7 +1454,7 @@
           <t>카페드림에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C31" s="16" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페(카페드림) &lt;br&gt;
 아메리카노(HOT/ICE): 2,100원, 아이스크림: 2,000원
@@ -1402,12 +1468,12 @@
 [2F] 평일,주말,공휴일: 09:00~23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D31" s="10" t="n"/>
-      <c r="E31" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A32" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1418,7 +1484,7 @@
           <t>카페 캠퍼에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C32" s="16" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페(캠퍼) &lt;br&gt;
 홍익대학교 제2기숙사 지하1층에 위치한 까페 캠퍼입니다. &lt;br&gt;
@@ -1427,12 +1493,12 @@
 (평일) 08:00-21:00 (토요일) 12:00-18:00 (일요일) 휴무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D32" s="10" t="n"/>
-      <c r="E32" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A33" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1443,7 +1509,7 @@
           <t>북카페 카페아이엔지에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C33" s="16" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>편의시설: 북카페(카페아이엔지) &lt;br&gt;
 중앙도서관 3층에 위치한 북까페 입니다. &lt;br&gt;
@@ -1452,12 +1518,12 @@
 (일요일/공휴일) 휴무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D33" s="10" t="n"/>
-      <c r="E33" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A34" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1468,7 +1534,7 @@
           <t>카페, 빵집 파브리카에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C34" s="16" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페/빵집(파브리카) &lt;br&gt;
 커피와 베이커리를 연구하고 만듭니다. &lt;br&gt;
@@ -1477,12 +1543,12 @@
 am08:00 – pm08:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D34" s="10" t="n"/>
-      <c r="E34" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D34" s="3" t="n"/>
+      <c r="E34" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A35" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1493,7 +1559,7 @@
           <t>카페 그라찌에에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C35" s="16" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페(그라찌에) &lt;br&gt;
 커피, 음료, 생과일주스, 버블티, 베이커리 등 
@@ -1503,12 +1569,12 @@
 (평일) 08:00 – 20:00 (주말) 09:00 – 18:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D35" s="10" t="n"/>
-      <c r="E35" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A36" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1519,7 +1585,7 @@
           <t>과일카페 푸르타에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C36" s="16" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>편의시설: 과일주스전문점(푸르타) &lt;br&gt;
 어디서도 보지못한 프리미엄 과일카페, 
@@ -1528,12 +1594,12 @@
 평일 : am09:00 - pm07:00 (학기중) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D36" s="10" t="n"/>
-      <c r="E36" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A37" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1544,7 +1610,7 @@
           <t>카페나무에 대한 정보를 알려줘</t>
         </is>
       </c>
-      <c r="C37" s="16" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>편의시설: 카페(카페나무) &lt;br&gt;
 깊은 향의 커피, 
@@ -1567,12 +1633,12 @@
 주말/공휴일, 학기중 : 휴무 방학중 : 휴무 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D37" s="10" t="n"/>
-      <c r="E37" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A38" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1583,7 +1649,7 @@
           <t>학교 편의점에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C38" s="16" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>학교 내 편의점 목록은 다음과 같습니다 &lt;br&gt;
 &lt;br&gt;
@@ -1592,12 +1658,12 @@
 편의점 바이스마트 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D38" s="10" t="n"/>
-      <c r="E38" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D38" s="3" t="n"/>
+      <c r="E38" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A39" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1608,7 +1674,7 @@
           <t>편의점 이마트24에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C39" s="16" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>편의시설: 편의점(이마트24) &lt;br&gt;
 딜리셔스 아이디어, 
@@ -1618,12 +1684,12 @@
 24시간 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D39" s="10" t="n"/>
-      <c r="E39" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A40" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1634,7 +1700,7 @@
           <t>편의점 바이스마트에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C40" s="16" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>편의시설: 편의점(바이스마트) &lt;br&gt;
 매일매일 제공되는 신선한 일일식품 
@@ -1647,12 +1713,12 @@
 주말/공휴일, 방학중 : 무인운영 05:30~23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D40" s="10" t="n"/>
-      <c r="E40" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D40" s="3" t="n"/>
+      <c r="E40" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A41" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1663,7 +1729,7 @@
           <t>학교 서점에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C41" s="16" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>편의시설: 서점(대학서적) &lt;br&gt;
 취급도서 : 대학교재, 일반단행본, 어학 교재, 잡지 등
@@ -1674,12 +1740,12 @@
 토요일 : am09:00 - pm02:00 (학기중) 일요일 및 공휴일 휴무 &lt;br.</t>
         </is>
       </c>
-      <c r="D41" s="10" t="n"/>
-      <c r="E41" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A42" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1690,7 +1756,7 @@
           <t>학교 문구점에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>편의시설: 문구/화방(한가람문구) &lt;br&gt;
 취급품목 :
@@ -1700,12 +1766,12 @@
 평일 : am08:30 - pm8:30 주말 및 공휴일 : am10:00 - pm08:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D42" s="10" t="n"/>
-      <c r="E42" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A43" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1716,7 +1782,7 @@
           <t>화방 한가람문구에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C43" s="12" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>편의시설: 문구/화방(한가람문구) &lt;br&gt;
 취급품목 :
@@ -1726,12 +1792,12 @@
 평일 : am08:30 - pm8:30 주말 및 공휴일 : am10:00 - pm08:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D43" s="10" t="n"/>
-      <c r="E43" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A44" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1742,7 +1808,7 @@
           <t>대학서적을 판매하는 곳에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C44" s="16" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>편의시설: 서점(대학서적) &lt;br&gt;
 취급도서 : 대학교재, 일반단행본, 어학 교재, 잡지 등
@@ -1753,12 +1819,12 @@
 토요일 : am09:00 - pm02:00 (학기중) 일요일 및 공휴일 휴무 &lt;br.</t>
         </is>
       </c>
-      <c r="D44" s="10" t="n"/>
-      <c r="E44" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D44" s="3" t="n"/>
+      <c r="E44" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A45" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1769,7 +1835,7 @@
           <t>학교 주차창에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C45" s="16" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>편의시설: 주차장(홍문관(R동)) &lt;br&gt;
 주차 안내 : 홍문관(R동) 지하 2, 3, 4층 &lt;br&gt;
@@ -1778,12 +1844,12 @@
 홍문관(R동) 지하 2, 3, 4층 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D45" s="10" t="n"/>
-      <c r="E45" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A46" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1794,7 +1860,7 @@
           <t>컴퓨터전자매장 비전플러스에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C46" s="16" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>편의시설: 컴퓨터전자매장 비젼플러스 &lt;br&gt;
 홍문관(R동) 지하2층에 위치한 PC와 컴퓨터 판매매장 비전플러스 입니다. &lt;br&gt;
@@ -1802,12 +1868,12 @@
 전화 : 02-325-3211 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D46" s="10" t="n"/>
-      <c r="E46" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A47" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1818,7 +1884,7 @@
           <t>여행사 마실에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C47" s="16" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>편의시설: 여행사(마실) &lt;br&gt;
 홍문관 지하2층에 위치한 여행사입니다. &lt;br&gt;
@@ -1827,12 +1893,12 @@
 09:00 - 18:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D47" s="10" t="n"/>
-      <c r="E47" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A48" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1843,7 +1909,7 @@
           <t>신한은행에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C48" s="16" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>편의시설: 은행(신한은행) &lt;br&gt;
 홍익대학교 홍문관 1층에 위치한 신한은행입니다. &lt;br&gt;
@@ -1854,12 +1920,12 @@
 유어스마트라운지 : (평일) 09:00 - 21:00 (주말/공휴일) 12:00 - 18:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D48" s="10" t="n"/>
-      <c r="E48" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D48" s="3" t="n"/>
+      <c r="E48" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A49" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1870,7 +1936,7 @@
           <t>원이약국에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C49" s="16" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>편의시설: 약국(원이약국) &lt;br&gt;
 홍익대학교 제2기숙사 지하1층에 위치한 약국 입니다. &lt;br&gt;
@@ -1879,12 +1945,12 @@
 (평일) 08:30 - 23:00 (주말) 11:00 - 22:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D49" s="10" t="n"/>
-      <c r="E49" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A50" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1895,7 +1961,7 @@
           <t>중식당 향차이에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C50" s="16" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>편의시설: 중식당(향차이) &lt;br&gt;
 홍익대학교 제2기숙사 지하1층에 위치한 중식당 향차이 입니다. &lt;br&gt;
@@ -1904,12 +1970,12 @@
 11:40-21:00 (15:00-16:30 브레이크타임 )&lt;br&gt;</t>
         </is>
       </c>
-      <c r="D50" s="10" t="n"/>
-      <c r="E50" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D50" s="3" t="n"/>
+      <c r="E50" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A51" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1920,7 +1986,7 @@
           <t>출력센터 에이제이네트웍스에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C51" s="16" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>편의시설: 출력센터(에이제이네트웍스) &lt;br&gt;
 후불교통카드로 각 건물에 배치된 출력기에서 출력가능 
@@ -1937,12 +2003,12 @@
 방학기간  평일 : am09:00 - pm06:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D51" s="10" t="n"/>
-      <c r="E51" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A52" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1953,7 +2019,7 @@
           <t>뷔페식당 마루샤브에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C52" s="16" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>편의시설: 뷔페식당(마루샤브) &lt;br&gt;
 샤브샤브와 샐러드바를 즐길수 있는 패밀리레스토랑 입니다 &lt;br&gt;
@@ -1961,12 +2027,12 @@
 11:30-21:30 (평일) (15:00-17:30 브레이크 타임) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D52" s="10" t="n"/>
-      <c r="E52" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D52" s="3" t="n"/>
+      <c r="E52" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A53" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -1977,7 +2043,7 @@
           <t>사진관 스튜디오홍대에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C53" s="16" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>편의시설: 사진관(스튜디오홍대) &lt;br&gt;
 작품, 증명(반명함, 여권, 비자, 외국인등록증용 사진), 학사모 촬영 &lt;br&gt; 
@@ -1989,12 +2055,12 @@
 (토요일) 11:00 - 17:00 (일요일/공휴일) 휴무, 예약촬영만 가능</t>
         </is>
       </c>
-      <c r="D53" s="10" t="n"/>
-      <c r="E53" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A54" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2005,7 +2071,7 @@
           <t>꽃집 세란꽃방에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C54" s="16" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>편의시설: 꽃집(세란꽃방) &lt;br&gt;
 싱싱한 꽃다발과 꽃바구니, 양난,화분 등을 판매하고있습니다. &lt;br&gt;
@@ -2015,12 +2081,12 @@
 주말/공휴일, 학기중 : 휴무 방학중 : 휴무</t>
         </is>
       </c>
-      <c r="D54" s="10" t="n"/>
-      <c r="E54" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A55" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2031,7 +2097,7 @@
           <t>학교 체육시설에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C55" s="16" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>학교 내 체육시설 목록은 다음과 같습니다. &lt;br&gt;
 &lt;br&gt;
@@ -2048,12 +2114,12 @@
 운동장기구실 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D55" s="10" t="n"/>
-      <c r="E55" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A56" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2064,7 +2130,7 @@
           <t>학교 농구장에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C56" s="16" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 농구장 &lt;br&gt;
 농구장은 언제나 농구를 즐기는 홍익인들로 붐빈다. 농구를 좋아하는 홍익인이라면 누구나 농구장을 자유롭게 사용할 수 있다. 농구공은 운동장 기구실에서 학생증을 맡기고 빌릴 수 있다. 농구장 뒤로는 스탠드가 잘 갖추어져 있어 자유롭게 농구 경기를 관람할 수도 있다. 농구장에서는 각종 개인적 경기뿐 아니라 단대별 체육행사 및 5월 점프(농구동아리) 배 4:4 농구 대회도 열린다. &lt;br&gt; &lt;br&gt;
@@ -2073,12 +2139,12 @@
 이용방법 : (학기 전) 학생지원팀 일괄 추첨 진행 / (학기 중) 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D56" s="10" t="n"/>
-      <c r="E56" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A57" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2089,7 +2155,7 @@
           <t>학교 배구장에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C57" s="16" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 배구장 &lt;br&gt;
 배구장은 체육관 경기장 내에 위치하고 있으며 
@@ -2100,12 +2166,12 @@
 이용방법 : 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D57" s="10" t="n"/>
-      <c r="E57" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A58" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2116,7 +2182,7 @@
           <t>학교 배드민턴장에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C58" s="16" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 배드민턴장 &lt;br&gt;
 배드민턴장은 체육관 경기장 내에 위치하고 있으며 
@@ -2128,12 +2194,12 @@
 이용방법 : 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D58" s="10" t="n"/>
-      <c r="E58" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A59" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2144,7 +2210,7 @@
           <t>학교 체력단련실에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C59" s="16" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 체력단련실 &lt;br&gt; 
  &lt;br&gt;
@@ -2156,12 +2222,12 @@
 이용방법 : 헬스부 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D59" s="10" t="n"/>
-      <c r="E59" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A60" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2172,7 +2238,7 @@
           <t>학교 검도장에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C60" s="16" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 검도장 &lt;br&gt; &lt;br&gt;
 검도장은 제2기숙사 지하 4층에 위치하고 있다. 검도장은 동아리 검도부에서 일괄적인 관리를 담당하고 있으며, 매일 17:00~19:30에는 검도부 연습이 있다. 검도장에는 검도부원들의 호구, 호면, 갑, 죽도 등이 구비되어 있다.
@@ -2182,12 +2248,12 @@
 이용방법 : 검도부 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D60" s="10" t="n"/>
-      <c r="E60" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A61" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2198,7 +2264,7 @@
           <t>학교 태권도실에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C61" s="16" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 태권도실 &lt;br&gt;
 제2기숙사 지하 4층에 위치한 태권도실은 15명 이상의 학생이 넓게 서서 운동할 수 있을 만큼의 규모를 갖추고 있다. 태권도실은 동아리 태권도부에서 일괄적으로 관리를 하고 있으며, 태권도부 연습이 매일 17:00~19:30에 있다. &lt;br&gt; 
@@ -2209,12 +2275,12 @@
 이용방법 : 태권도부 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D61" s="10" t="n"/>
-      <c r="E61" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A62" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2225,7 +2291,7 @@
           <t>학교 탁구장에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C62" s="16" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 탁구장 &lt;br&gt; &lt;br&gt;
 학생 및 교직원 대상으로 이용 가능하다. &lt;br&gt;
@@ -2235,12 +2301,12 @@
 이용방법 : 수시이용 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D62" s="10" t="n"/>
-      <c r="E62" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D62" s="3" t="n"/>
+      <c r="E62" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A63" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2251,7 +2317,7 @@
           <t>학교 체육관경기장에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C63" s="16" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 체육관경기장 &lt;br&gt; &lt;br&gt;
 경기장은 1,127m²(무대 152m²포함)의 규모로써 1,592석의 스탠드를 갖추고 있다. 경기장의 980.2m²(37.7m x 26m) 의 메인코트에서는 농구, 배구, 배드민턴, 탁구, 권투, 검도, 태권도, 펜싱, 유도, 체조, 레슬링 등의 각종 실내경기를 즐길 수 있다.  &lt;br&gt;
@@ -2261,12 +2327,12 @@
 이용방법 : 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D63" s="10" t="n"/>
-      <c r="E63" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A64" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2277,7 +2343,7 @@
           <t>학교 대운동장에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C64" s="16" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 대운동장 &lt;br&gt; &lt;br&gt;
 학교 정문을 들어서자마자 탁 트인 하늘과 맞닿아 있는 약 6,000평의 대운동장에서는 언제나 활기찬 모습의 홍익인들을 만날 수 있다. 대운동장은 특히 수업이 끝난 이후에 축구, 농구, 발야구 등을 즐기고자 하는 학생들로 붐빈다. 야간 스탠드 장비가 설치되어 있어 늦게까지 시간에 구애받지 않고 즐거운 여가 생활을 즐길 수가 있다.  &lt;br&gt;
@@ -2288,12 +2354,12 @@
 이용방법 : (학기 전) 학생지원팀 일괄 추첨 진행 / (학기 중) 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D64" s="10" t="n"/>
-      <c r="E64" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D64" s="3" t="n"/>
+      <c r="E64" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A65" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2304,7 +2370,7 @@
           <t>학교 운동장기구실에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C65" s="16" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>스포츠 시설: 운동장기구실 &lt;br&gt; &lt;br&gt;
 운동장 기구실은 대운동장 스탠드 본부 아래에 위치하고 있다. 홍익인이라면 누구나 학생증을 제시하고 축구공, 배구공, 농구공과 라이너, 점수판, 호루라기 등 각종 체육 장비들을 대여할 수 있다. &lt;br&gt;
@@ -2315,12 +2381,12 @@
 이용방법 : 관재팀 문의 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D65" s="10" t="n"/>
-      <c r="E65" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A66" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2357,12 +2423,12 @@
 홍익대학교에는 제1기숙사, 제2기숙사, 제3기숙사가 있습니다. &lt;br&gt; 각각의 기숙사에 대한 정보를 알고 싶으면 각 기숙사를 검색해주세요</t>
         </is>
       </c>
-      <c r="D66" s="7" t="n"/>
-      <c r="E66" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A67" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2373,7 +2439,7 @@
           <t>제1기숙사에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C67" s="16" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>제1기숙사(대학원생용 남문관, 합숙소 시설 포함) &lt;br&gt; &lt;br&gt;
 제1기숙사는 노후화된 시설이기에 2024년에 최첨단 시설로 재건축 공사 착공 예정이어서 2024년 2월까지만 운영 예정이다. &lt;br&gt;
@@ -2392,12 +2458,12 @@
 화장실, 샤워실, 휴게실, 세탁실, 열람실 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D67" s="10" t="n"/>
-      <c r="E67" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A68" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2408,7 +2474,7 @@
           <t>제2기숙사에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C68" s="16" t="inlineStr">
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>위치 : 서울시 마포구 와우산로 94 (04066) &lt;br&gt;
 전화 : 02-320-2402～2405 (2402 ~ 2405) &lt;br&gt;
@@ -2426,12 +2492,12 @@
 식당, 휴게실, 세탁실, 체력단련실, 열람실, 편의점, 택배보관실&lt;br&gt;</t>
         </is>
       </c>
-      <c r="D68" s="10" t="n"/>
-      <c r="E68" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D68" s="3" t="n"/>
+      <c r="E68" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" ht="25" customFormat="1" customHeight="1" s="9">
       <c r="A69" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
@@ -2442,7 +2508,7 @@
           <t>제3기숙사에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C69" s="16" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>위치 : 서울시 마포구 성미산로 55 (03967) &lt;br&gt;
 전화 : 02-338-7440 &lt;br&gt;
@@ -2460,54 +2526,66 @@
 공동조리실, 휴게실, 세탁실, 체력단련실, 열람실, 편의점, 택배보관실 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D69" s="10" t="n"/>
-      <c r="E69" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" ht="140" customFormat="1" customHeight="1" s="9">
       <c r="A70" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B70" s="19" t="inlineStr">
+      <c r="B70" s="12" t="inlineStr">
         <is>
           <t>학교 박물관에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C70" s="16" t="inlineStr">
-        <is>
-          <t>학교 박물관입니다.</t>
-        </is>
-      </c>
-      <c r="D70" s="10" t="n"/>
-      <c r="E70" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="17.25" customFormat="1" customHeight="1" s="9">
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>홍익대학교 박물관은 선사시대 고미술품부터 근·현대회화, 조각, 도예 등의 시대를 망라하는 다양한 종류의 미술품을 소장하고 있으며 전시와 연구, 교육을 중심으로 운영하는 박물관입니다!&lt;br&gt;
+위치: 서울캠퍼스 문헌관(MH동) 2, 3층&lt;br&gt;
+전화 : 02-320-1322~4&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n"/>
+      <c r="E70" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="356" customFormat="1" customHeight="1" s="9">
       <c r="A71" s="3" t="inlineStr">
         <is>
           <t>편의시설</t>
         </is>
       </c>
-      <c r="B71" s="19" t="inlineStr">
+      <c r="B71" s="12" t="inlineStr">
         <is>
           <t>학교 현대미술관에 대해 알려줘</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>학교 현대미술관 입니다.</t>
-        </is>
-      </c>
-      <c r="D71" s="10" t="n"/>
-      <c r="E71" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="17.25" customHeight="1">
+          <t>홍익대학교 현대미술관은 현대미술의 실험과 확장을 모색하는 기획전 및 동문 작가 초대전을 여는 동시에 우리나라의 현대미술을 이끌어 갈 신진 및 현역 작가에게 작품 발표의 기회를 제공하여 한국 현대미술의 발전에 기여하고자 노력하고 있습니다!&lt;br&gt;
+위치: 서울캠퍼스 문헌관(MH동) 4층(1관), 홍문관(R동) 2층(2관)&lt;br&gt;
+전화 : 02-320-3272&lt;br&gt;
+HoMA 1관 (문헌관 4층)&lt;br&gt;
+학부 졸업전, 과제전, 대학원 재학생 중심의 전시 개최&lt;br&gt;
+문헌관 4층 (1전시실 : 393m2, 2전시실 : 233m2, 홀 : 288m2)&lt;br&gt;
+이용가능시간 : 10:00 ~ 18:00 (월~금)&lt;br&gt;
+HoMA 2관 (홍문관 2층)&lt;br&gt;
+현대미술의 동향을 소개하는 기획전 및 초대전, 대관전, 본교 박사학위 청구전 개최&lt;br&gt;
+홍문관 2층 (1전시실 : 297m2, 2전시실 : 330m2)&lt;br&gt;
+이용가능시간 : 10:00 ~ 18:00 (수~일)&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="25" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2528,11 +2606,11 @@
           <t>1월 학사일정,2월 학사일정,3월 학사일정,4월 학사일정,5월 학사일정,6월 학사일정,7월 학사일정,8월 학사일정,9월 학사일정,10월 학사일정,11월 학사일정,12월 학사일정</t>
         </is>
       </c>
-      <c r="E72" s="6" t="n">
+      <c r="E72" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="17.25" customHeight="1">
+    <row r="73" ht="25" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2543,16 +2621,17 @@
           <t>이번달 학사일정에 대해 알려줘</t>
         </is>
       </c>
+      <c r="C73" s="26" t="n"/>
       <c r="D73" s="4" t="inlineStr">
         <is>
           <t>1월 학사일정,2월 학사일정,3월 학사일정,4월 학사일정,5월 학사일정,6월 학사일정,7월 학사일정,8월 학사일정,9월 학사일정,10월 학사일정,11월 학사일정,12월 학사일정</t>
         </is>
       </c>
-      <c r="E73" s="6" t="n">
+      <c r="E73" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="17.25" customHeight="1">
+    <row r="74" ht="25" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2563,16 +2642,17 @@
           <t>다음달 학사일정에 대해 알려줘</t>
         </is>
       </c>
+      <c r="C74" s="26" t="n"/>
       <c r="D74" s="4" t="inlineStr">
         <is>
           <t>1월 학사일정,2월 학사일정,3월 학사일정,4월 학사일정,5월 학사일정,6월 학사일정,7월 학사일정,8월 학사일정,9월 학사일정,10월 학사일정,11월 학사일정,12월 학사일정</t>
         </is>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E74" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="75" ht="17.25" customHeight="1">
+    <row r="75" ht="25" customHeight="1">
       <c r="A75" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2591,11 +2671,12 @@
 2024학년도 1학기 복학신청: 24일(수) ~ 2월 1일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E75" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" ht="17.25" customHeight="1">
+      <c r="D75" s="26" t="n"/>
+      <c r="E75" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" ht="25" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2619,11 +2700,12 @@
 2024학년도 1학기 수강신청: 23일(금) ~ 28일(수) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E76" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="17.25" customHeight="1">
+      <c r="D76" s="26" t="n"/>
+      <c r="E76" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" ht="25" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2644,11 +2726,12 @@
 강의중간평가: 29일(금) ~ 4월 19일(금) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E77" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="17.25" customHeight="1">
+      <c r="D77" s="26" t="n"/>
+      <c r="E77" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" ht="25" customHeight="1">
       <c r="A78" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2667,11 +2750,12 @@
 2024학년도 1학기 사이버강좌 중간고사: 20일(토) ~ 21일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E78" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="17.25" customHeight="1">
+      <c r="D78" s="26" t="n"/>
+      <c r="E78" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" ht="25" customHeight="1">
       <c r="A79" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2695,11 +2779,12 @@
 2024학년도 2학기 교내장학금 신청(~6.20(목) 18시): 21일(화) ~ 6월 20일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E79" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="17.25" customHeight="1">
+      <c r="D79" s="26" t="n"/>
+      <c r="E79" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" ht="25" customHeight="1">
       <c r="A80" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2728,11 +2813,12 @@
 2024학년도 하계 계절학기: 28일(금) ~ 7월 18일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E80" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="17.25" customHeight="1">
+      <c r="D80" s="26" t="n"/>
+      <c r="E80" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="25" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2757,11 +2843,12 @@
 2024학년도 2학기 복학신청: 23일(화) ~ 8월 1일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E81" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="17.25" customHeight="1">
+      <c r="D81" s="26" t="n"/>
+      <c r="E81" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="25" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2787,11 +2874,12 @@
 2024학년도 2학기 등록 및 휴학신청: 23일(금) ~ 29일(목) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E82" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="17.25" customHeight="1">
+      <c r="D82" s="26" t="n"/>
+      <c r="E82" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" ht="25" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2815,11 +2903,12 @@
 추석연휴: 18일(수) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E83" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" ht="17.25" customHeight="1">
+      <c r="D83" s="26" t="n"/>
+      <c r="E83" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="25" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2841,11 +2930,12 @@
 2024학년도 2학기 사이버강좌 중간고사: 19일(토) ~ 20일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E84" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" ht="17.25" customHeight="1">
+      <c r="D84" s="26" t="n"/>
+      <c r="E84" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="25" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2864,11 +2954,12 @@
 2025학년도 1학기 교내장학금 신청(기간 별도공지): 1일(금) ~  12월 31일(일) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E85" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" ht="17.25" customHeight="1">
+      <c r="D85" s="26" t="n"/>
+      <c r="E85" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="25" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2895,11 +2986,12 @@
 2024학년도 동계 계절학기(예정): 27일(금) ~ 1월 17일(금) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E86" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="17.25" customHeight="1">
+      <c r="D86" s="26" t="n"/>
+      <c r="E86" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="25" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2920,11 +3012,11 @@
           <t>1월 학사일정,2월 학사일정,3월 학사일정,4월 학사일정,5월 학사일정,6월 학사일정,7월 학사일정,8월 학사일정,9월 학사일정,10월 학사일정,11월 학사일정,12월 학사일정</t>
         </is>
       </c>
-      <c r="E87" s="6" t="n">
+      <c r="E87" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="88" ht="17.25" customHeight="1">
+    <row r="88" ht="25" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2940,11 +3032,12 @@
           <t>2023년 12월 1일(금) ~ 2024년 2월 29일(목)</t>
         </is>
       </c>
-      <c r="E88" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" ht="17.25" customHeight="1">
+      <c r="D88" s="26" t="n"/>
+      <c r="E88" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" ht="25" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2960,11 +3053,12 @@
           <t>2023년 12월 1일(금) ~ 2024년 2월 29일(목)</t>
         </is>
       </c>
-      <c r="E89" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" ht="17.25" customHeight="1">
+      <c r="D89" s="26" t="n"/>
+      <c r="E89" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="25" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -2980,11 +3074,12 @@
           <t>1월 24일(수) ~ 2월 1일(목)</t>
         </is>
       </c>
-      <c r="E90" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" ht="17.25" customHeight="1">
+      <c r="D90" s="26" t="n"/>
+      <c r="E90" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="25" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3000,11 +3095,12 @@
           <t>2월 2일(금) ~ 3일(토)</t>
         </is>
       </c>
-      <c r="E91" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" ht="17.25" customHeight="1">
+      <c r="D91" s="26" t="n"/>
+      <c r="E91" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" ht="25" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3020,11 +3116,12 @@
           <t>2월 22일(목) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E92" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" ht="17.25" customHeight="1">
+      <c r="D92" s="26" t="n"/>
+      <c r="E92" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" ht="25" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3040,11 +3137,12 @@
           <t>2월 22일(목)</t>
         </is>
       </c>
-      <c r="E93" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" ht="17.25" customHeight="1">
+      <c r="D93" s="26" t="n"/>
+      <c r="E93" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="25" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3060,11 +3158,12 @@
           <t>2월 23일(금)</t>
         </is>
       </c>
-      <c r="E94" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" ht="17.25" customHeight="1">
+      <c r="D94" s="26" t="n"/>
+      <c r="E94" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" ht="25" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3080,11 +3179,12 @@
           <t>2월 23일(금) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E95" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" ht="17.25" customHeight="1">
+      <c r="D95" s="26" t="n"/>
+      <c r="E95" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" ht="25" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3100,11 +3200,12 @@
           <t>3월 4일(월)</t>
         </is>
       </c>
-      <c r="E96" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" ht="17.25" customHeight="1">
+      <c r="D96" s="26" t="n"/>
+      <c r="E96" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" ht="25" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3120,11 +3221,12 @@
           <t>3월 4일(월) ~ 11일(월)</t>
         </is>
       </c>
-      <c r="E97" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" ht="17.25" customHeight="1">
+      <c r="D97" s="26" t="n"/>
+      <c r="E97" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" ht="25" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3140,11 +3242,12 @@
           <t>3월 27일(수) ~ 29일(금)</t>
         </is>
       </c>
-      <c r="E98" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="17.25" customHeight="1">
+      <c r="D98" s="26" t="n"/>
+      <c r="E98" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3160,11 +3263,12 @@
           <t>3월 29일(금) ~ 4월 19일(금)</t>
         </is>
       </c>
-      <c r="E99" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" ht="17.25" customHeight="1">
+      <c r="D99" s="26" t="n"/>
+      <c r="E99" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" ht="25" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3180,11 +3284,12 @@
           <t>4월 20일(토) ~ 21일(일)</t>
         </is>
       </c>
-      <c r="E100" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" ht="17.25" customHeight="1">
+      <c r="D100" s="26" t="n"/>
+      <c r="E100" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" ht="25" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3200,11 +3305,12 @@
           <t>5월 1일(수) ~ 7월 31일(월)</t>
         </is>
       </c>
-      <c r="E101" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="17.25" customHeight="1">
+      <c r="D101" s="26" t="n"/>
+      <c r="E101" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" ht="25" customHeight="1">
       <c r="A102" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3220,11 +3326,12 @@
           <t>5월 2일(목) ~ 31일(금)</t>
         </is>
       </c>
-      <c r="E102" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" ht="17.25" customHeight="1">
+      <c r="D102" s="26" t="n"/>
+      <c r="E102" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" ht="25" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3240,11 +3347,12 @@
           <t>5월 13일(월) ~ 7월 19일(금)</t>
         </is>
       </c>
-      <c r="E103" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" ht="17.25" customHeight="1">
+      <c r="D103" s="26" t="n"/>
+      <c r="E103" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" ht="25" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3260,11 +3368,12 @@
           <t>5월 21일(화) ~ 6월 20일(목) 18시</t>
         </is>
       </c>
-      <c r="E104" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" ht="17.25" customHeight="1">
+      <c r="D104" s="26" t="n"/>
+      <c r="E104" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="25" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3280,11 +3389,12 @@
           <t>6월  11일(화) ~ 13일(목)</t>
         </is>
       </c>
-      <c r="E105" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" ht="17.25" customHeight="1">
+      <c r="D105" s="26" t="n"/>
+      <c r="E105" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="25" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3300,11 +3410,12 @@
           <t>6월 14일(금)</t>
         </is>
       </c>
-      <c r="E106" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" ht="17.25" customHeight="1">
+      <c r="D106" s="26" t="n"/>
+      <c r="E106" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" ht="25" customHeight="1">
       <c r="A107" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3320,11 +3431,12 @@
           <t>6월 14일(금) ~ 7월 4일(목)</t>
         </is>
       </c>
-      <c r="E107" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" ht="17.25" customHeight="1">
+      <c r="D107" s="26" t="n"/>
+      <c r="E107" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="25" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3340,11 +3452,12 @@
           <t>6월 15일(토) ~ 16일(일)</t>
         </is>
       </c>
-      <c r="E108" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" ht="17.25" customHeight="1">
+      <c r="D108" s="26" t="n"/>
+      <c r="E108" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3360,11 +3473,12 @@
           <t>6월 17일(월) ~ 21일(금)</t>
         </is>
       </c>
-      <c r="E109" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" ht="17.25" customHeight="1">
+      <c r="D109" s="26" t="n"/>
+      <c r="E109" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" ht="25" customHeight="1">
       <c r="A110" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3380,11 +3494,12 @@
           <t>6월 18일(화)</t>
         </is>
       </c>
-      <c r="E110" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" ht="17.25" customHeight="1">
+      <c r="D110" s="26" t="n"/>
+      <c r="E110" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" ht="25" customHeight="1">
       <c r="A111" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3400,11 +3515,12 @@
           <t>6월 22일(토)</t>
         </is>
       </c>
-      <c r="E111" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" ht="17.25" customHeight="1">
+      <c r="D111" s="26" t="n"/>
+      <c r="E111" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" ht="25" customHeight="1">
       <c r="A112" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3420,11 +3536,12 @@
           <t>6월 28일(금) ~ 7월 18일(목)</t>
         </is>
       </c>
-      <c r="E112" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" ht="17.25" customHeight="1">
+      <c r="D112" s="26" t="n"/>
+      <c r="E112" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="25" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3440,11 +3557,12 @@
           <t>7월 1일(월) ~ 10월 31일(화)</t>
         </is>
       </c>
-      <c r="E113" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" ht="17.25" customHeight="1">
+      <c r="D113" s="26" t="n"/>
+      <c r="E113" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" ht="25" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3460,11 +3578,12 @@
           <t>7월 1일(월) ~ 11월 30일(금)</t>
         </is>
       </c>
-      <c r="E114" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" ht="17.25" customHeight="1">
+      <c r="D114" s="26" t="n"/>
+      <c r="E114" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" ht="25" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3480,11 +3599,12 @@
           <t>7월 5일(금) ~ 12일(금)</t>
         </is>
       </c>
-      <c r="E115" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" ht="17.25" customHeight="1">
+      <c r="D115" s="26" t="n"/>
+      <c r="E115" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" ht="25" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3500,11 +3620,12 @@
           <t>7월 13일(토)</t>
         </is>
       </c>
-      <c r="E116" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" ht="17.25" customHeight="1">
+      <c r="D116" s="26" t="n"/>
+      <c r="E116" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="25" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3520,11 +3641,12 @@
           <t>7월 23일(화) ~ 8월 1일(목)</t>
         </is>
       </c>
-      <c r="E117" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" ht="17.25" customHeight="1">
+      <c r="D117" s="26" t="n"/>
+      <c r="E117" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" ht="25" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3540,11 +3662,12 @@
           <t>8월 5일(월) ~ 6일(화)</t>
         </is>
       </c>
-      <c r="E118" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" ht="17.25" customHeight="1">
+      <c r="D118" s="26" t="n"/>
+      <c r="E118" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3560,11 +3683,12 @@
           <t>8월 9일(금) ~ 15일(목)</t>
         </is>
       </c>
-      <c r="E119" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" ht="17.25" customHeight="1">
+      <c r="D119" s="26" t="n"/>
+      <c r="E119" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" ht="25" customHeight="1">
       <c r="A120" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3580,11 +3704,12 @@
           <t>8월 16일(금) ~ 22일(목)</t>
         </is>
       </c>
-      <c r="E120" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" ht="17.25" customHeight="1">
+      <c r="D120" s="26" t="n"/>
+      <c r="E120" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" ht="25" customHeight="1">
       <c r="A121" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3600,11 +3725,12 @@
           <t>8월 22일(목)</t>
         </is>
       </c>
-      <c r="E121" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" ht="17.25" customHeight="1">
+      <c r="D121" s="26" t="n"/>
+      <c r="E121" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" ht="25" customHeight="1">
       <c r="A122" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3620,11 +3746,12 @@
           <t>8월 23일(금) ~ 28일(수)</t>
         </is>
       </c>
-      <c r="E122" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" ht="17.25" customHeight="1">
+      <c r="D122" s="26" t="n"/>
+      <c r="E122" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3640,11 +3767,12 @@
           <t>8월 23일(금) ~ 29일(목)</t>
         </is>
       </c>
-      <c r="E123" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" ht="17.25" customHeight="1">
+      <c r="D123" s="26" t="n"/>
+      <c r="E123" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" ht="25" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3660,11 +3788,12 @@
           <t>9월 1일(일) ~ 12월 31일(일)</t>
         </is>
       </c>
-      <c r="E124" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" ht="17.25" customHeight="1">
+      <c r="D124" s="26" t="n"/>
+      <c r="E124" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="25" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3680,11 +3809,12 @@
           <t>9월 2일(월)</t>
         </is>
       </c>
-      <c r="E125" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" ht="17.25" customHeight="1">
+      <c r="D125" s="26" t="n"/>
+      <c r="E125" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="25" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3700,11 +3830,12 @@
           <t>9월 2일(월) ~ 9일(월)</t>
         </is>
       </c>
-      <c r="E126" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" ht="17.25" customHeight="1">
+      <c r="D126" s="26" t="n"/>
+      <c r="E126" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3720,11 +3851,12 @@
           <t>10월 19일(토) ~ 20일(일)</t>
         </is>
       </c>
-      <c r="E127" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" ht="17.25" customHeight="1">
+      <c r="D127" s="26" t="n"/>
+      <c r="E127" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" ht="25" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3740,11 +3872,12 @@
           <t>11월 1일(금) ~ 12월 31일(일)</t>
         </is>
       </c>
-      <c r="E128" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" ht="17.25" customHeight="1">
+      <c r="D128" s="26" t="n"/>
+      <c r="E128" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3760,11 +3893,12 @@
           <t>12월 1일(일) ~ 2월 28일(토)</t>
         </is>
       </c>
-      <c r="E129" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" ht="17.25" customHeight="1">
+      <c r="D129" s="26" t="n"/>
+      <c r="E129" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" ht="25" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3780,11 +3914,12 @@
           <t>12월 1일(일) ~ 2월 28일(토)</t>
         </is>
       </c>
-      <c r="E130" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" ht="17.25" customHeight="1">
+      <c r="D130" s="26" t="n"/>
+      <c r="E130" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3800,11 +3935,12 @@
           <t>12월 14일(토) ~ 3일(금)</t>
         </is>
       </c>
-      <c r="E131" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" ht="17.25" customHeight="1">
+      <c r="D131" s="26" t="n"/>
+      <c r="E131" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" ht="25" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3820,11 +3956,12 @@
           <t>12월 14일(토) ~ 15일(일), 21(토)</t>
         </is>
       </c>
-      <c r="E132" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" ht="17.25" customHeight="1">
+      <c r="D132" s="26" t="n"/>
+      <c r="E132" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3840,11 +3977,12 @@
           <t>12월 14일(토) ~ 1월 3일(금)</t>
         </is>
       </c>
-      <c r="E133" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" ht="17.25" customHeight="1">
+      <c r="D133" s="26" t="n"/>
+      <c r="E133" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" ht="25" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3860,11 +3998,12 @@
           <t>12월 16일(월) ~ 20일(금)</t>
         </is>
       </c>
-      <c r="E134" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" ht="17.25" customHeight="1">
+      <c r="D134" s="26" t="n"/>
+      <c r="E134" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3880,11 +4019,12 @@
           <t>12월 27일(금) ~ 1월 17일(금)</t>
         </is>
       </c>
-      <c r="E135" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" ht="17.25" customHeight="1">
+      <c r="D135" s="26" t="n"/>
+      <c r="E135" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" ht="25" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3900,11 +4040,12 @@
           <t>2025년 1월 24일(금) ~ 2월 2일(일)</t>
         </is>
       </c>
-      <c r="E136" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" ht="17.25" customHeight="1">
+      <c r="D136" s="26" t="n"/>
+      <c r="E136" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3920,11 +4061,12 @@
           <t>2월 4일(화) ~ 5일(수)</t>
         </is>
       </c>
-      <c r="E137" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" ht="17.25" customHeight="1">
+      <c r="D137" s="26" t="n"/>
+      <c r="E137" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" ht="25" customHeight="1">
       <c r="A138" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3940,11 +4082,12 @@
           <t>2월 21일(금)</t>
         </is>
       </c>
-      <c r="E138" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" ht="17.25" customHeight="1">
+      <c r="D138" s="26" t="n"/>
+      <c r="E138" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" ht="25" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3960,11 +4103,12 @@
           <t>2월 21일(금) ~ 27일(목)</t>
         </is>
       </c>
-      <c r="E139" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" ht="17.25" customHeight="1">
+      <c r="D139" s="26" t="n"/>
+      <c r="E139" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" ht="25" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -3980,11 +4124,12 @@
           <t>2월 24일(월)</t>
         </is>
       </c>
-      <c r="E140" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" ht="17.25" customHeight="1">
+      <c r="D140" s="26" t="n"/>
+      <c r="E140" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" ht="25" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -4000,11 +4145,12 @@
           <t>2월 24일(월) ~ 27일(목)</t>
         </is>
       </c>
-      <c r="E141" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" ht="17.25" customHeight="1">
+      <c r="D141" s="26" t="n"/>
+      <c r="E141" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="25" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
         <is>
           <t>학사일정</t>
@@ -4029,11 +4175,12 @@
 2024학년도 2학기 수강신청 정정(~9.9 17시까지): 9월 2일(월) ~ 9일"</t>
         </is>
       </c>
-      <c r="E142" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" ht="17.25" customHeight="1">
+      <c r="D142" s="26" t="n"/>
+      <c r="E142" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="25" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4047,17 +4194,18 @@
       <c r="C143" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.59 &lt;br&gt;
+온도 : 15.07 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
+최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E143" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" ht="17.25" customHeight="1">
+      <c r="D143" s="26" t="n"/>
+      <c r="E143" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" ht="25" customHeight="1">
       <c r="A144" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4071,17 +4219,18 @@
       <c r="C144" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.59 &lt;br&gt;
+온도 : 15.07 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
+최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E144" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" ht="17.25" customHeight="1">
+      <c r="D144" s="26" t="n"/>
+      <c r="E144" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" ht="25" customHeight="1">
       <c r="A145" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4095,17 +4244,18 @@
       <c r="C145" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.59 &lt;br&gt;
+온도 : 15.07 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
+최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E145" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" ht="17.25" customHeight="1">
+      <c r="D145" s="26" t="n"/>
+      <c r="E145" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" ht="25" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4119,17 +4269,18 @@
       <c r="C146" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.59 &lt;br&gt;
+온도 : 15.07 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
+최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E146" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" ht="17.25" customHeight="1">
+      <c r="D146" s="26" t="n"/>
+      <c r="E146" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" ht="25" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4143,17 +4294,18 @@
       <c r="C147" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.59 &lt;br&gt;
+온도 : 15.07 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
+최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E147" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" ht="17.25" customHeight="1">
+      <c r="D147" s="26" t="n"/>
+      <c r="E147" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="25" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4167,17 +4319,18 @@
       <c r="C148" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.59 &lt;br&gt;
+온도 : 15.07 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
+최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E148" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" ht="17.25" customHeight="1">
+      <c r="D148" s="26" t="n"/>
+      <c r="E148" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="25" customHeight="1">
       <c r="A149" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4191,17 +4344,18 @@
       <c r="C149" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.59 &lt;br&gt;
+온도 : 15.07 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
+최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E149" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" ht="17.25" customHeight="1">
+      <c r="D149" s="26" t="n"/>
+      <c r="E149" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" ht="25" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4215,17 +4369,18 @@
       <c r="C150" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.59 &lt;br&gt;
+온도 : 15.07 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 15.24 최고 기온 : 15.82 &lt;br&gt;
+최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
 </t>
         </is>
       </c>
-      <c r="E150" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" ht="17.25" customHeight="1">
+      <c r="D150" s="26" t="n"/>
+      <c r="E150" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="25" customHeight="1">
       <c r="A151" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4245,11 +4400,12 @@
 </t>
         </is>
       </c>
-      <c r="E151" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" ht="17.25" customHeight="1">
+      <c r="D151" s="26" t="n"/>
+      <c r="E151" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="25" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4269,11 +4425,12 @@
 </t>
         </is>
       </c>
-      <c r="E152" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" ht="17.25" customHeight="1">
+      <c r="D152" s="26" t="n"/>
+      <c r="E152" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="25" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4293,11 +4450,12 @@
 </t>
         </is>
       </c>
-      <c r="E153" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" ht="17.25" customHeight="1">
+      <c r="D153" s="26" t="n"/>
+      <c r="E153" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" ht="25" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4317,11 +4475,12 @@
 </t>
         </is>
       </c>
-      <c r="E154" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" ht="17.25" customHeight="1">
+      <c r="D154" s="26" t="n"/>
+      <c r="E154" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="25" customHeight="1">
       <c r="A155" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4341,11 +4500,12 @@
 </t>
         </is>
       </c>
-      <c r="E155" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" ht="17.25" customHeight="1">
+      <c r="D155" s="26" t="n"/>
+      <c r="E155" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" ht="25" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4365,11 +4525,12 @@
 </t>
         </is>
       </c>
-      <c r="E156" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" ht="17.25" customHeight="1">
+      <c r="D156" s="26" t="n"/>
+      <c r="E156" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" ht="25" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
         <is>
           <t>학교 날씨</t>
@@ -4389,85 +4550,177 @@
 </t>
         </is>
       </c>
-      <c r="E157" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" ht="17.25" customHeight="1">
-      <c r="A158" s="3" t="inlineStr">
+      <c r="D157" s="26" t="n"/>
+      <c r="E157" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" ht="38.5" customHeight="1">
+      <c r="A158" s="15" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B158" s="4" t="inlineStr">
+      <c r="B158" s="16" t="inlineStr">
+        <is>
+          <t>학교에 대한 정보를 알려줘</t>
+        </is>
+      </c>
+      <c r="C158" s="15" t="inlineStr">
+        <is>
+          <t>홍익대학교에 대한 어떤 정보를 알려드릴까요?</t>
+        </is>
+      </c>
+      <c r="D158" s="15" t="inlineStr">
+        <is>
+          <t>마스코트, 총장님, 상징물, 교가, 교색, 연혁, 교육이념, 현재 현황</t>
+        </is>
+      </c>
+      <c r="E158" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" ht="28" customHeight="1">
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B159" s="17" t="inlineStr">
         <is>
           <t>학교 마스코트는 누구야?</t>
         </is>
       </c>
-      <c r="C158" s="16" t="inlineStr">
+      <c r="C159" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 마스코트는 와우입니다. &lt;br&gt;
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E158" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" ht="17.25" customHeight="1">
-      <c r="A159" s="3" t="inlineStr">
+      <c r="D159" s="26" t="n"/>
+      <c r="E159" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="25" customHeight="1">
+      <c r="A160" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B159" s="4" t="inlineStr">
+      <c r="B160" s="17" t="inlineStr">
         <is>
           <t>학교 마스코트에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C159" s="16" t="inlineStr">
+      <c r="C160" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 마스코트는 와우입니다. &lt;br&gt;
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E159" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" ht="17.25" customHeight="1">
-      <c r="A160" s="3" t="inlineStr">
+      <c r="D160" s="26" t="n"/>
+      <c r="E160" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" ht="25" customHeight="1">
+      <c r="A161" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B160" s="4" t="inlineStr">
+      <c r="B161" s="17" t="inlineStr">
         <is>
           <t>학교를 대표하는 캐릭터를 알려줘</t>
         </is>
       </c>
-      <c r="C160" s="16" t="inlineStr">
+      <c r="C161" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 마스코트는 와우입니다. &lt;br&gt;
 피카소라고 불리는 황소도 있습니다. &gt;&lt;</t>
         </is>
       </c>
-      <c r="E160" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" ht="17.25" customHeight="1">
-      <c r="A161" s="3" t="inlineStr">
+      <c r="D161" s="26" t="n"/>
+      <c r="E161" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="25" customHeight="1">
+      <c r="A162" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B161" s="4" t="inlineStr">
+      <c r="B162" s="17" t="inlineStr">
+        <is>
+          <t>학교 총장님이 누구야?</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>20대 총장님은 양현석 총장님입니다.</t>
+        </is>
+      </c>
+      <c r="D162" s="26" t="n"/>
+      <c r="E162" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" ht="25" customHeight="1">
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B163" s="17" t="inlineStr">
+        <is>
+          <t>학교를 대표하는 상징물은 무엇이 있어?</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
+        <is>
+          <t>홍익대학교에는 영원한 미소라는 멋진 상징물이 있어요. :)</t>
+        </is>
+      </c>
+      <c r="D163" s="26" t="n"/>
+      <c r="E163" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" ht="25" customHeight="1">
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B164" s="17" t="inlineStr">
+        <is>
+          <t>영원한 미소에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>홍익대학교에는 영원한 미소라는 멋진 상징물이 있어요. :)</t>
+        </is>
+      </c>
+      <c r="D164" s="26" t="n"/>
+      <c r="E164" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" ht="25" customHeight="1">
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>학교 정보</t>
+        </is>
+      </c>
+      <c r="B165" s="17" t="inlineStr">
         <is>
           <t>학교 교가에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C161" s="16" t="inlineStr">
+      <c r="C165" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 교가는 &lt;홍익학원가&gt;입니다. &lt;br&gt;
 아- 그 이름 길이 빛날 &lt;br&gt;
@@ -4477,22 +4730,23 @@
 &lt;a href="https://www.hongik.ac.kr/kr/introduction/song-hongik.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E161" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" ht="17.25" customHeight="1">
-      <c r="A162" s="3" t="inlineStr">
+      <c r="D165" s="26" t="n"/>
+      <c r="E165" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" ht="25" customHeight="1">
+      <c r="A166" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B162" s="4" t="inlineStr">
+      <c r="B166" s="17" t="inlineStr">
         <is>
           <t>학교 교가는 뭐야?</t>
         </is>
       </c>
-      <c r="C162" s="16" t="inlineStr">
+      <c r="C166" s="3" t="inlineStr">
         <is>
           <t>홍익대학교의 교가는 &lt;홍익학원가&gt;입니다. &lt;br&gt;
 아- 그 이름 길이 빛날 &lt;br&gt;
@@ -4502,206 +4756,153 @@
 &lt;a href="https://www.hongik.ac.kr/kr/introduction/song-hongik.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E162" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" ht="17.25" customHeight="1">
-      <c r="A163" s="3" t="inlineStr">
+      <c r="D166" s="26" t="n"/>
+      <c r="E166" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" ht="25" customHeight="1">
+      <c r="A167" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B163" s="4" t="inlineStr">
-        <is>
-          <t>학교 총장님이 누구야?</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="inlineStr">
-        <is>
-          <t>20대 총장님은 양현석 총장님입니다.</t>
-        </is>
-      </c>
-      <c r="E163" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" ht="17.25" customHeight="1">
-      <c r="A164" s="3" t="inlineStr">
+      <c r="B167" s="17" t="inlineStr">
+        <is>
+          <t>우리학교의 교색이 뭐야</t>
+        </is>
+      </c>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t>홍익대학교의 교색은 파란색입니다.</t>
+        </is>
+      </c>
+      <c r="D167" s="26" t="n"/>
+      <c r="E167" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" ht="25" customHeight="1">
+      <c r="A168" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B164" s="4" t="inlineStr">
-        <is>
-          <t>학교를 대표하는 상징물은 무엇이 있어?</t>
-        </is>
-      </c>
-      <c r="C164" s="17" t="inlineStr">
-        <is>
-          <t>홍익대학교에는 영원한 미소라는 멋진 상징물이 있어요. :)</t>
-        </is>
-      </c>
-      <c r="E164" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" ht="17.25" customHeight="1">
-      <c r="A165" s="3" t="inlineStr">
+      <c r="B168" s="17" t="inlineStr">
+        <is>
+          <t>학교의 교색이 뭐야</t>
+        </is>
+      </c>
+      <c r="C168" s="4" t="inlineStr">
+        <is>
+          <t>홍익대학교의 교색은 파란색입니다.</t>
+        </is>
+      </c>
+      <c r="D168" s="26" t="n"/>
+      <c r="E168" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" ht="25" customHeight="1">
+      <c r="A169" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B165" s="4" t="inlineStr">
-        <is>
-          <t>영원한 미소에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C165" s="17" t="inlineStr">
-        <is>
-          <t>홍익대학교에는 영원한 미소라는 멋진 상징물이 있어요. :)</t>
-        </is>
-      </c>
-      <c r="E165" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" ht="17.25" customHeight="1">
-      <c r="A166" s="3" t="inlineStr">
+      <c r="B169" s="17" t="inlineStr">
+        <is>
+          <t>학교 연혁에 대해 알려줘</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
+        </is>
+      </c>
+      <c r="D169" s="26" t="n"/>
+      <c r="E169" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" ht="25" customHeight="1">
+      <c r="A170" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B166" s="4" t="inlineStr">
-        <is>
-          <t>우리학교의 교색이 뭐야</t>
-        </is>
-      </c>
-      <c r="C166" s="4" t="inlineStr">
-        <is>
-          <t>홍익대학교의 교색은 파란색입니다.</t>
-        </is>
-      </c>
-      <c r="E166" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" ht="17.25" customHeight="1">
-      <c r="A167" s="3" t="inlineStr">
-        <is>
-          <t>학교 정보</t>
-        </is>
-      </c>
-      <c r="B167" s="4" t="inlineStr">
-        <is>
-          <t>학교의 교색이 뭐야</t>
-        </is>
-      </c>
-      <c r="C167" s="4" t="inlineStr">
-        <is>
-          <t>홍익대학교의 교색은 파란색입니다.</t>
-        </is>
-      </c>
-      <c r="E167" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" ht="17.25" customHeight="1">
-      <c r="A168" s="3" t="inlineStr">
-        <is>
-          <t>학교 정보</t>
-        </is>
-      </c>
-      <c r="B168" s="4" t="inlineStr">
-        <is>
-          <t>학교 연혁에 대해 알려줘</t>
-        </is>
-      </c>
-      <c r="C168" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
-        </is>
-      </c>
-      <c r="E168" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" ht="17.25" customHeight="1">
-      <c r="A169" s="3" t="inlineStr">
-        <is>
-          <t>학교 정보</t>
-        </is>
-      </c>
-      <c r="B169" s="4" t="inlineStr">
+      <c r="B170" s="17" t="inlineStr">
         <is>
           <t>학교 교육이념에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C169" s="16" t="inlineStr">
+      <c r="C170" s="3" t="inlineStr">
         <is>
           <t>&lt;br&gt; 홍익대학교는 홍익인간과 산학일체의 이념으로 개인의 능력을 개발하고, 
 주체성과 자주성을 길러 국가사회 발전에 능동적으로 
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E169" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" ht="17.25" customHeight="1">
-      <c r="A170" s="3" t="inlineStr">
+      <c r="D170" s="26" t="n"/>
+      <c r="E170" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" ht="25" customHeight="1">
+      <c r="A171" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B170" s="4" t="inlineStr">
+      <c r="B171" s="17" t="inlineStr">
         <is>
           <t>학교 발전 목표를 알려줘</t>
         </is>
       </c>
-      <c r="C170" s="16" t="inlineStr">
+      <c r="C171" s="3" t="inlineStr">
         <is>
           <t>&lt;br&gt; 홍익대학교는 홍익인간과 산학일체의 이념으로 개인의 능력을 개발하고, 
 주체성과 자주성을 길러 국가사회 발전에 능동적으로 
 공헌할 수 있는 인재를 양성합니다. :) &lt;br&gt;</t>
         </is>
       </c>
-      <c r="E170" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" ht="17.25" customHeight="1">
-      <c r="A171" s="3" t="inlineStr">
+      <c r="D171" s="26" t="n"/>
+      <c r="E171" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" ht="25" customHeight="1">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>학교 정보</t>
         </is>
       </c>
-      <c r="B171" s="4" t="inlineStr">
+      <c r="B172" s="17" t="inlineStr">
         <is>
           <t>학교 현재 현황에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C171" s="16" t="inlineStr">
+      <c r="C172" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">학교의 역사는 &lt;a href="https://www.hongik.ac.kr/kr/introduction/history.do"&gt;링크&lt;/a&gt;에서 확인할 수 있습니다. &lt;br&gt; </t>
         </is>
       </c>
-      <c r="E171" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" ht="17.25" customHeight="1">
-      <c r="A172" s="3" t="inlineStr">
+      <c r="D172" s="26" t="n"/>
+      <c r="E172" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" ht="25" customHeight="1">
+      <c r="A173" s="3" t="inlineStr">
         <is>
           <t>졸업 요건</t>
         </is>
       </c>
-      <c r="B172" s="4" t="inlineStr">
+      <c r="B173" s="4" t="inlineStr">
         <is>
           <t>졸업요건을 알려줘</t>
         </is>
       </c>
-      <c r="C172" s="16" t="inlineStr">
+      <c r="C173" s="3" t="inlineStr">
         <is>
           <t>&lt;table border="1"&gt;
   &lt;tr&gt;
@@ -4766,22 +4967,23 @@
 자세한 내용은 클래스넷에서 확인하세요.</t>
         </is>
       </c>
-      <c r="E172" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" ht="17.25" customHeight="1">
-      <c r="A173" s="4" t="inlineStr">
+      <c r="D173" s="26" t="n"/>
+      <c r="E173" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" ht="25" customHeight="1">
+      <c r="A174" s="4" t="inlineStr">
         <is>
           <t>졸업 요건</t>
         </is>
       </c>
-      <c r="B173" s="4" t="inlineStr">
+      <c r="B174" s="4" t="inlineStr">
         <is>
           <t>졸업 학점을 알려줘</t>
         </is>
       </c>
-      <c r="C173" s="16" t="inlineStr">
+      <c r="C174" s="3" t="inlineStr">
         <is>
           <t>&lt;table border="1"&gt;
   &lt;tr&gt;
@@ -4846,22 +5048,23 @@
 자세한 내용은 클래스넷에서 확인하세요.</t>
         </is>
       </c>
-      <c r="E173" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" ht="17.25" customHeight="1">
-      <c r="A174" s="3" t="inlineStr">
+      <c r="D174" s="26" t="n"/>
+      <c r="E174" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" ht="25" customHeight="1">
+      <c r="A175" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B174" s="4" t="inlineStr">
+      <c r="B175" s="4" t="inlineStr">
         <is>
           <t>열람실 현황 알려줘</t>
         </is>
       </c>
-      <c r="C174" s="3" t="inlineStr">
+      <c r="C175" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -4869,27 +5072,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D174" s="3" t="inlineStr">
+      <c r="D175" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E174" s="6" t="n">
+      <c r="E175" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="175" ht="17.25" customHeight="1">
-      <c r="A175" s="3" t="inlineStr">
+    <row r="176" ht="25" customHeight="1">
+      <c r="A176" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B175" s="4" t="inlineStr">
+      <c r="B176" s="4" t="inlineStr">
         <is>
           <t>지금 열람실에 자리가 있니?</t>
         </is>
       </c>
-      <c r="C175" s="3" t="inlineStr">
+      <c r="C176" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -4897,27 +5100,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D175" s="3" t="inlineStr">
+      <c r="D176" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E175" s="6" t="n">
+      <c r="E176" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="176" ht="17.25" customHeight="1">
-      <c r="A176" s="3" t="inlineStr">
+    <row r="177" ht="25" customHeight="1">
+      <c r="A177" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B176" s="4" t="inlineStr">
+      <c r="B177" s="4" t="inlineStr">
         <is>
           <t>열람실 자리 현황을 알려줘</t>
         </is>
       </c>
-      <c r="C176" s="3" t="inlineStr">
+      <c r="C177" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -4925,27 +5128,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D176" s="3" t="inlineStr">
+      <c r="D177" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E176" s="6" t="n">
+      <c r="E177" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="177" ht="17.25" customHeight="1">
-      <c r="A177" s="3" t="inlineStr">
+    <row r="178" ht="25" customHeight="1">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B177" s="4" t="inlineStr">
+      <c r="B178" s="4" t="inlineStr">
         <is>
           <t>T동 열람실 현황 알려줘</t>
         </is>
       </c>
-      <c r="C177" s="3" t="inlineStr">
+      <c r="C178" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -4953,27 +5156,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D177" s="3" t="inlineStr">
+      <c r="D178" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E177" s="6" t="n">
+      <c r="E178" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="178" ht="17.25" customHeight="1">
-      <c r="A178" s="3" t="inlineStr">
+    <row r="179" ht="25" customHeight="1">
+      <c r="A179" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B178" s="4" t="inlineStr">
+      <c r="B179" s="4" t="inlineStr">
         <is>
           <t>법학 도서관(R동) 열람실 현황에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C178" s="3" t="inlineStr">
+      <c r="C179" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -4981,27 +5184,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D178" s="3" t="inlineStr">
+      <c r="D179" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E178" s="6" t="n">
+      <c r="E179" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="179" ht="17.25" customHeight="1">
-      <c r="A179" s="3" t="inlineStr">
+    <row r="180" ht="25" customHeight="1">
+      <c r="A180" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B179" s="4" t="inlineStr">
+      <c r="B180" s="4" t="inlineStr">
         <is>
           <t>중앙도서관(H동) 열람실 현황에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C179" s="3" t="inlineStr">
+      <c r="C180" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5009,108 +5212,138 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D179" s="3" t="inlineStr">
+      <c r="D180" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E179" s="6" t="n">
+      <c r="E180" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="180" ht="20" customHeight="1">
-      <c r="A180" s="3" t="inlineStr">
+    <row r="181" ht="25" customHeight="1">
+      <c r="A181" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B180" s="19" t="inlineStr">
+      <c r="B181" s="12" t="inlineStr">
         <is>
           <t>학교 도서관에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C180" s="16" t="inlineStr">
-        <is>
-          <t>학교 도서관은 어쩌구 저쩌구</t>
-        </is>
-      </c>
-      <c r="E180" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" ht="17.25" customHeight="1">
-      <c r="A181" s="3" t="inlineStr">
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>홍익대학교 서울 캠퍼스 내에는 H동에 중앙도서관, R동에 법학도서관이 있습니다!</t>
+        </is>
+      </c>
+      <c r="D181" s="26" t="n"/>
+      <c r="E181" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" ht="25" customHeight="1">
+      <c r="A182" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B181" s="19" t="inlineStr">
+      <c r="B182" s="12" t="inlineStr">
         <is>
           <t>중앙도서관에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C181" s="16" t="inlineStr">
-        <is>
-          <t>학교 도서관은 어쩌구 저쩌구</t>
-        </is>
-      </c>
-      <c r="E181" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" ht="17.25" customHeight="1">
-      <c r="A182" s="3" t="inlineStr">
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>학생회관 뒷편 중앙도서관(H동) 1~6층, 정보통신센터(Q동) 4~9층&lt;br&gt;
+대표번호 02)320-1305&lt;br&gt;
+개방 시간&lt;br&gt;
+학기중 월~금 09:00~20:00 / 토 09:00~15:00&lt;br&gt;
+방학중 월~금 10:00~16:00 / 토 09:00~15:00&lt;br&gt;
+중앙 도서관(H동) 시설 안내&lt;br&gt;
+1층~4층: 대출자료실 (출입게이트: 1층)&lt;br&gt;
+5층: 참고자료실&lt;br&gt;
+6층: 학위논문실, 멀티자료실&lt;br&gt;
+정보통신센터(Q동)&lt;br&gt;
+9층: 수서실&lt;br&gt;
+7층~8층: 정기간행물실 (출입게이트: 7층)&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D182" s="26" t="n"/>
+      <c r="E182" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" ht="36.5" customHeight="1">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B182" s="19" t="inlineStr">
+      <c r="B183" s="12" t="inlineStr">
         <is>
           <t>법학도서관에 대해 알려줘</t>
         </is>
       </c>
-      <c r="C182" s="16" t="inlineStr">
-        <is>
-          <t>학교 도서관은 어쩌구 저쩌구</t>
-        </is>
-      </c>
-      <c r="E182" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" ht="20" customHeight="1">
-      <c r="A183" s="3" t="inlineStr">
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>홍익대학교 법학도서관은 법학 전문도서 및 특성화 자료실로 구성되어 있다. &lt;br&gt;
+약 7만여 권의 법학 관련 단행본, 정기간행물, 비도서자료 등을 소장하고 있으며, 법학 분야 전자자원과 Web DB 등을 구독하고 있다. &lt;br&gt;
+법학 자료열람실, 정보검색실, 공동학습실, 노트북열람실 등이 마련되어 있으며, 법학 전공자뿐만 아니라 홍익대 구성원 모두가 이용할 수 있다.&lt;br&gt;
+홍문관(R동) 8층&lt;br&gt;
+대표번호 02-320-3171&lt;br&gt;
+열람시간&lt;br&gt; 
+자료열람실&lt;br&gt;
+학기중 09:00~17:00 (대출 반납 16:30까지)&lt;br&gt;
+방학중 10:00~16:00, 노트북열람실 06:00~23:00&lt;br&gt;
+토요일/공휴일 휴실&lt;br&gt;
+공동학습실&lt;br&gt;
+학기중, 방학중 09:00 ~ 23:00&lt;br&gt;
+토요일/공휴일 휴실&lt;br&gt;
+노트북열람실&lt;br&gt;
+학기중, 방학중 06:00 ~ 23:00&lt;br&gt;
+연중 무휴&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D183" s="26" t="n"/>
+      <c r="E183" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" ht="274.5" customHeight="1">
+      <c r="A184" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B183" s="19" t="inlineStr">
+      <c r="B184" s="12" t="inlineStr">
         <is>
           <t>도서관 위치를 알려줘</t>
         </is>
       </c>
-      <c r="C183" s="3" t="inlineStr">
-        <is>
-          <t>"도서관 선택"</t>
-        </is>
-      </c>
-      <c r="D183" s="3" t="n"/>
-      <c r="E183" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" ht="17.25" customHeight="1">
-      <c r="A184" s="3" t="inlineStr">
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>중앙 도서관은 학생회관 뒷편 중앙도서관(H동) 1~6층, 정보통신센터(Q동) 4~9층에 위치해있고, &lt;br&gt;
+법학도서관은 홍문관(R동) 8층에 위치해 있습니다!&lt;br&gt;</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="n"/>
+      <c r="E184" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="382.5" customHeight="1">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B185" s="3" t="inlineStr">
         <is>
           <t>열람실 위치를 알려줘</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
+      <c r="C185" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5118,27 +5351,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr">
+      <c r="D185" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E184" s="6" t="n">
+      <c r="E185" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="185" ht="17.25" customHeight="1">
-      <c r="A185" s="3" t="inlineStr">
+    <row r="186" ht="78.5" customHeight="1">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B185" s="3" t="inlineStr">
+      <c r="B186" s="3" t="inlineStr">
         <is>
           <t>열람실 운영시간을 알려줘</t>
         </is>
       </c>
-      <c r="C185" s="3" t="inlineStr">
+      <c r="C186" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5146,27 +5379,27 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D185" s="3" t="inlineStr">
+      <c r="D186" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E185" s="6" t="n">
+      <c r="E186" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="186" ht="17.25" customHeight="1">
-      <c r="A186" s="3" t="inlineStr">
+    <row r="187" ht="60" customHeight="1">
+      <c r="A187" s="3" t="inlineStr">
         <is>
           <t>도서관, 열람실</t>
         </is>
       </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="B187" s="3" t="inlineStr">
         <is>
           <t>열람실 개방시간을 알려줘</t>
         </is>
       </c>
-      <c r="C186" s="3" t="inlineStr">
+      <c r="C187" s="3" t="inlineStr">
         <is>
           <t>&lt;운영시간&gt; &lt;br&gt;
 학관(H동, G동) : 06:00 ~ 23:00 &lt;br&gt;
@@ -5174,21 +5407,208 @@
 R동 : 06:00 ~ 23:00 &lt;br&gt;</t>
         </is>
       </c>
-      <c r="D186" s="3" t="inlineStr">
+      <c r="D187" s="3" t="inlineStr">
         <is>
           <t>학관 열람실, T동 열람실, R동 열람실</t>
         </is>
       </c>
-      <c r="E186" s="6" t="n">
+      <c r="E187" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="187" ht="20" customFormat="1" customHeight="1" s="9">
-      <c r="A187" s="10" t="n"/>
-      <c r="B187" s="10" t="n"/>
-      <c r="C187" s="3" t="n"/>
-      <c r="D187" s="10" t="n"/>
-      <c r="E187" s="11" t="n"/>
+    <row r="188" ht="92" customFormat="1" customHeight="1" s="9">
+      <c r="A188" s="15" t="inlineStr">
+        <is>
+          <t>인사</t>
+        </is>
+      </c>
+      <c r="B188" s="18" t="inlineStr">
+        <is>
+          <t>안녕</t>
+        </is>
+      </c>
+      <c r="C188" s="19" t="inlineStr">
+        <is>
+          <t>안녕하세요! 반가워요</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="n"/>
+      <c r="E188" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" ht="25" customFormat="1" customHeight="1" s="9">
+      <c r="A189" s="19" t="inlineStr">
+        <is>
+          <t>인사</t>
+        </is>
+      </c>
+      <c r="B189" s="20" t="inlineStr">
+        <is>
+          <t>안녕하세요</t>
+        </is>
+      </c>
+      <c r="C189" s="19" t="inlineStr">
+        <is>
+          <t>안녕하세요! 반가워요</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="n"/>
+      <c r="E189" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" ht="25" customFormat="1" customHeight="1" s="9">
+      <c r="A190" s="19" t="inlineStr">
+        <is>
+          <t>인사</t>
+        </is>
+      </c>
+      <c r="B190" s="20" t="inlineStr">
+        <is>
+          <t>하이</t>
+        </is>
+      </c>
+      <c r="C190" s="19" t="inlineStr">
+        <is>
+          <t>안녕하세요! 반가워요</t>
+        </is>
+      </c>
+      <c r="D190" s="21" t="n"/>
+      <c r="E190" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" ht="28" customFormat="1" customHeight="1" s="9">
+      <c r="A191" s="19" t="inlineStr">
+        <is>
+          <t>인사</t>
+        </is>
+      </c>
+      <c r="B191" s="18" t="inlineStr">
+        <is>
+          <t>하이하이</t>
+        </is>
+      </c>
+      <c r="C191" s="19" t="inlineStr">
+        <is>
+          <t>안녕하세요! 반가워요</t>
+        </is>
+      </c>
+      <c r="D191" s="21" t="n"/>
+      <c r="E191" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" ht="25" customFormat="1" customHeight="1" s="9">
+      <c r="A192" s="19" t="inlineStr">
+        <is>
+          <t>자기소개</t>
+        </is>
+      </c>
+      <c r="B192" s="20" t="inlineStr">
+        <is>
+          <t>너는 누구야?</t>
+        </is>
+      </c>
+      <c r="C192" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
+저에게 홍익대학교에 대해 궁금한 점을 질문해주세요! &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="D192" s="21" t="n"/>
+      <c r="E192" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" ht="25" customFormat="1" customHeight="1" s="9">
+      <c r="A193" s="19" t="inlineStr">
+        <is>
+          <t>자기소개</t>
+        </is>
+      </c>
+      <c r="B193" s="18" t="inlineStr">
+        <is>
+          <t>너가 누구야?</t>
+        </is>
+      </c>
+      <c r="C193" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
+저에게 홍익대학교에 대해 궁금한 점을 질문해주세요! &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="D193" s="21" t="n"/>
+      <c r="E193" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" ht="80.5" customFormat="1" customHeight="1" s="9">
+      <c r="A194" s="19" t="inlineStr">
+        <is>
+          <t>자기소개</t>
+        </is>
+      </c>
+      <c r="B194" s="20" t="inlineStr">
+        <is>
+          <t>니 이름이 뭐야?</t>
+        </is>
+      </c>
+      <c r="C194" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
+저에게 홍익대학교에 대해 궁금한 점을 질문해주세요! &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="D194" s="21" t="n"/>
+      <c r="E194" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" ht="25" customFormat="1" customHeight="1" s="9">
+      <c r="A195" s="19" t="inlineStr">
+        <is>
+          <t>자기소개</t>
+        </is>
+      </c>
+      <c r="B195" s="18" t="inlineStr">
+        <is>
+          <t>너에 대해 소개해줘</t>
+        </is>
+      </c>
+      <c r="C195" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+저는 홍익대학교에 대한 정보를 제공해주는 hongik-gpt입니다!&lt;br&gt;
+저에게 홍익대학교에 대해 궁금한 점을 질문해주세요! &lt;br&gt;
+</t>
+        </is>
+      </c>
+      <c r="D195" s="21" t="n"/>
+      <c r="E195" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" ht="59" customHeight="1">
+      <c r="A196" s="26" t="n"/>
+      <c r="B196" s="26" t="n"/>
+      <c r="C196" s="26" t="n"/>
+      <c r="D196" s="26" t="n"/>
+      <c r="E196" s="27" t="n"/>
+    </row>
+    <row r="197" ht="61.5" customHeight="1">
+      <c r="A197" s="26" t="n"/>
+      <c r="B197" s="26" t="n"/>
+      <c r="C197" s="26" t="n"/>
+      <c r="D197" s="26" t="n"/>
+      <c r="E197" s="27" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -636,16 +636,16 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -667,16 +667,16 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -698,16 +698,16 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -729,16 +729,16 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -760,16 +760,16 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -791,16 +791,16 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -822,16 +822,16 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -853,16 +853,16 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -884,16 +884,16 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -915,16 +915,16 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -946,16 +946,16 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -977,16 +977,16 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1008,16 +1008,16 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1039,16 +1039,16 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1070,16 +1070,16 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1101,16 +1101,16 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 14일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 15일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵,   &lt;br&gt;
-점심 : 어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치,   &lt;br&gt;
-저녁 : 미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치,   &lt;br&gt;
+아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
+점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
+저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡,   &lt;br&gt;
-저녁 : 고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 "
 </t>
         </is>
@@ -4193,10 +4193,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.07 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 16.75 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4218,10 +4218,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.07 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 16.75 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4243,10 +4243,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.07 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 16.75 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4268,10 +4268,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.07 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 16.75 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4293,10 +4293,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.07 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 16.75 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4318,10 +4318,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.07 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 16.75 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4343,10 +4343,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.07 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 16.75 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4368,10 +4368,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 14일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.07 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 14.44 최고 기온 : 15.63 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 16.75 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4393,10 +4393,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 17.75 &lt;br&gt;
-날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
-최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.08 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4418,10 +4418,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 17.75 &lt;br&gt;
-날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
-최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.08 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4443,10 +4443,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 17.75 &lt;br&gt;
-날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
-최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.08 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4468,10 +4468,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 17.75 &lt;br&gt;
-날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
-최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.08 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4493,10 +4493,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 17.75 &lt;br&gt;
-날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
-최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.08 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4518,10 +4518,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 17.75 &lt;br&gt;
-날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
-최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.08 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4543,10 +4543,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 17.75 &lt;br&gt;
-날씨 : 약간의 구름이 낀 하늘 &lt;br&gt;
-최저 기온 : 15.79 최고 기온 : 20.39 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 15.08 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -4194,9 +4194,9 @@
       <c r="C143" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.75 &lt;br&gt;
+온도 : 16.78 &lt;br&gt;
 날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4219,9 +4219,9 @@
       <c r="C144" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.75 &lt;br&gt;
+온도 : 16.78 &lt;br&gt;
 날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4244,9 +4244,9 @@
       <c r="C145" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.75 &lt;br&gt;
+온도 : 16.78 &lt;br&gt;
 날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4269,9 +4269,9 @@
       <c r="C146" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.75 &lt;br&gt;
+온도 : 16.78 &lt;br&gt;
 날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4294,9 +4294,9 @@
       <c r="C147" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.75 &lt;br&gt;
+온도 : 16.78 &lt;br&gt;
 날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4319,9 +4319,9 @@
       <c r="C148" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.75 &lt;br&gt;
+온도 : 16.78 &lt;br&gt;
 날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4344,9 +4344,9 @@
       <c r="C149" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.75 &lt;br&gt;
+온도 : 16.78 &lt;br&gt;
 날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4369,9 +4369,9 @@
       <c r="C150" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.75 &lt;br&gt;
+온도 : 16.78 &lt;br&gt;
 날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.21 &lt;br&gt;
+최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4395,7 +4395,7 @@
         <is>
           <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 15.08 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
 최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
@@ -4420,7 +4420,7 @@
         <is>
           <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 15.08 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
 최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
@@ -4445,7 +4445,7 @@
         <is>
           <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 15.08 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
 최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
@@ -4470,7 +4470,7 @@
         <is>
           <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 15.08 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
 최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
@@ -4495,7 +4495,7 @@
         <is>
           <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 15.08 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
 최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
@@ -4520,7 +4520,7 @@
         <is>
           <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 15.08 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
 최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>
@@ -4545,7 +4545,7 @@
         <is>
           <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
 온도 : 15.08 &lt;br&gt;
-날씨 : 실 비 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
 최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
 </t>
         </is>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -636,16 +636,16 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -667,16 +667,16 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -698,16 +698,16 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -729,16 +729,16 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -760,16 +760,16 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -791,16 +791,16 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -822,16 +822,16 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -853,16 +853,16 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -884,16 +884,16 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -915,16 +915,16 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -946,16 +946,16 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -977,16 +977,16 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1008,16 +1008,16 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1039,16 +1039,16 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1070,16 +1070,16 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1101,16 +1101,16 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 15일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 18일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀,   &lt;br&gt;
-점심 : 수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치,   &lt;br&gt;
-저녁 : 사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치,   &lt;br&gt;
+아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
+점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
+저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 "
 </t>
         </is>
@@ -4193,10 +4193,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.78 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 3.41 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4218,10 +4218,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.78 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 3.41 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4243,10 +4243,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.78 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 3.41 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4268,10 +4268,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.78 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 3.41 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4293,10 +4293,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.78 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 3.41 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4318,10 +4318,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.78 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 3.41 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4343,10 +4343,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.78 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 3.41 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4368,10 +4368,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 15일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 16.78 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 15.51 최고 기온 : 18.28 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 3.41 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4393,10 +4393,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.08 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 7.16 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
+최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4418,10 +4418,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.08 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 7.16 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
+최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4443,10 +4443,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.08 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 7.16 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
+최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4468,10 +4468,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.08 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 7.16 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
+최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4493,10 +4493,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.08 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 7.16 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
+최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4518,10 +4518,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.08 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 7.16 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
+최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4543,10 +4543,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 16일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 15.08 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 7.16 &lt;br&gt;
 날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 10.4 최고 기온 : 18.07 &lt;br&gt;
+최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -636,16 +636,16 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -667,16 +667,16 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -698,16 +698,16 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -729,16 +729,16 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -760,16 +760,16 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -791,16 +791,16 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -822,16 +822,16 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -853,16 +853,16 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -884,16 +884,16 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -915,16 +915,16 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -946,16 +946,16 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -977,16 +977,16 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1008,16 +1008,16 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1039,16 +1039,16 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1070,16 +1070,16 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1101,16 +1101,16 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 18일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 19일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 ,   &lt;br&gt;
-점심 : 콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치,   &lt;br&gt;
-저녁 : 짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치,   &lt;br&gt;
+아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
+점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
+저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
-저녁 : 콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
+점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
 "
 </t>
         </is>
@@ -1268,9 +1268,29 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
+          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
+작성자 : 한여은
+제목 : 2024-2학기 노트북 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
+작성일자 : 2024.08.22
+작성자 : 조현영
+제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
+작성일자 : 2024.08.21
+작성자 : 조현영
+제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
+작성일자 : 2024.08.21
+작성자 : 한여은
+제목 : 2024-2학기 태블릿 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
+작성일자 : 2024.08.20
+작성자 : 컴퓨터공학과
+제목 : 24-2 졸업프로젝트1 분반배정결과 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
+작성일자 : 2024.08.19
+</t>
         </is>
       </c>
       <c r="D24" s="4" t="n"/>
@@ -1291,9 +1311,29 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
+          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
+작성자 : 한여은
+제목 : 2024-2학기 노트북 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
+작성일자 : 2024.08.22
+작성자 : 조현영
+제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
+작성일자 : 2024.08.21
+작성자 : 조현영
+제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
+작성일자 : 2024.08.21
+작성자 : 한여은
+제목 : 2024-2학기 태블릿 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
+작성일자 : 2024.08.20
+작성자 : 컴퓨터공학과
+제목 : 24-2 졸업프로젝트1 분반배정결과 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
+작성일자 : 2024.08.19
+</t>
         </is>
       </c>
       <c r="D25" s="26" t="n"/>
@@ -1314,9 +1354,29 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
+          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
+작성자 : 한여은
+제목 : 2024-2학기 노트북 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
+작성일자 : 2024.08.22
+작성자 : 조현영
+제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
+작성일자 : 2024.08.21
+작성자 : 조현영
+제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
+작성일자 : 2024.08.21
+작성자 : 한여은
+제목 : 2024-2학기 태블릿 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
+작성일자 : 2024.08.20
+작성자 : 컴퓨터공학과
+제목 : 24-2 졸업프로젝트1 분반배정결과 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
+작성일자 : 2024.08.19
+</t>
         </is>
       </c>
       <c r="D26" s="26" t="n"/>
@@ -1337,9 +1397,29 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>최근 게시된 학교 공지사항입니다. &lt;br&gt;
+          <t xml:space="preserve">최근 게시된 학교 공지사항입니다. &lt;br&gt;
 제목(링크) | 게시날짜 | 작성자 &lt;br&gt;
-제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
+작성자 : 한여은
+제목 : 2024-2학기 노트북 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
+작성일자 : 2024.08.22
+작성자 : 조현영
+제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
+작성일자 : 2024.08.21
+작성자 : 조현영
+제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
+작성일자 : 2024.08.21
+작성자 : 한여은
+제목 : 2024-2학기 태블릿 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
+작성일자 : 2024.08.20
+작성자 : 컴퓨터공학과
+제목 : 24-2 졸업프로젝트1 분반배정결과 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
+작성일자 : 2024.08.19
+</t>
         </is>
       </c>
       <c r="D27" s="26" t="n"/>
@@ -4193,10 +4273,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 3.41 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.86 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4218,10 +4298,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 3.41 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.86 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4243,10 +4323,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 3.41 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.86 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4268,10 +4348,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 3.41 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.86 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4293,10 +4373,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 3.41 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.86 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4318,10 +4398,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 3.41 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.86 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4343,10 +4423,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 3.41 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.86 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4368,10 +4448,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 18일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 3.41 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 2 최고 기온 : 5.56 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.86 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4393,10 +4473,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 7.16 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.08 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4418,10 +4498,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 7.16 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.08 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4443,10 +4523,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 7.16 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.08 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4468,10 +4548,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 7.16 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.08 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4493,10 +4573,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 7.16 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.08 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4518,10 +4598,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 7.16 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.08 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4543,10 +4623,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 7.16 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 5.42 최고 기온 : 9.5 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.08 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -4274,9 +4274,9 @@
       <c r="C143" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.86 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
+온도 : 6.06 &lt;br&gt;
+날씨 : 구름조금 &lt;br&gt;
+최저 기온 : 5.64 최고 기온 : 7.35 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4299,9 +4299,9 @@
       <c r="C144" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.86 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
+온도 : 6.06 &lt;br&gt;
+날씨 : 구름조금 &lt;br&gt;
+최저 기온 : 5.64 최고 기온 : 7.35 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4324,9 +4324,9 @@
       <c r="C145" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.86 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
+온도 : 6.06 &lt;br&gt;
+날씨 : 구름조금 &lt;br&gt;
+최저 기온 : 5.64 최고 기온 : 7.35 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4349,9 +4349,9 @@
       <c r="C146" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.86 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
+온도 : 6.06 &lt;br&gt;
+날씨 : 구름조금 &lt;br&gt;
+최저 기온 : 5.64 최고 기온 : 7.35 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4374,9 +4374,9 @@
       <c r="C147" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.86 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
+온도 : 6.06 &lt;br&gt;
+날씨 : 구름조금 &lt;br&gt;
+최저 기온 : 5.64 최고 기온 : 7.35 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4399,9 +4399,9 @@
       <c r="C148" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.86 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
+온도 : 6.06 &lt;br&gt;
+날씨 : 구름조금 &lt;br&gt;
+최저 기온 : 5.64 최고 기온 : 7.35 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4424,9 +4424,9 @@
       <c r="C149" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.86 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
+온도 : 6.06 &lt;br&gt;
+날씨 : 구름조금 &lt;br&gt;
+최저 기온 : 5.64 최고 기온 : 7.35 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4449,9 +4449,9 @@
       <c r="C150" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.86 &lt;br&gt;
-날씨 : 튼구름 &lt;br&gt;
-최저 기온 : 3.1 최고 기온 : 9.57 &lt;br&gt;
+온도 : 6.06 &lt;br&gt;
+날씨 : 구름조금 &lt;br&gt;
+최저 기온 : 5.64 최고 기온 : 7.35 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4474,9 +4474,9 @@
       <c r="C151" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.08 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
+온도 : 8.29 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4499,9 +4499,9 @@
       <c r="C152" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.08 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
+온도 : 8.29 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4524,9 +4524,9 @@
       <c r="C153" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.08 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
+온도 : 8.29 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4549,9 +4549,9 @@
       <c r="C154" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.08 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
+온도 : 8.29 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4574,9 +4574,9 @@
       <c r="C155" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.08 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
+온도 : 8.29 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4599,9 +4599,9 @@
       <c r="C156" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.08 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
+온도 : 8.29 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4624,9 +4624,9 @@
       <c r="C157" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.08 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.49 최고 기온 : 9.42 &lt;br&gt;
+온도 : 8.29 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -636,16 +636,16 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -666,16 +666,16 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -696,16 +696,16 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -726,16 +726,16 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -756,16 +756,16 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -786,16 +786,16 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -816,16 +816,16 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -846,16 +846,16 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -876,16 +876,16 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -906,16 +906,16 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -936,16 +936,16 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -966,16 +966,16 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -996,16 +996,16 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1026,16 +1026,16 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1056,16 +1056,16 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1086,16 +1086,16 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 19일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 22일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, ,   &lt;br&gt;
-점심 : 미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치,   &lt;br&gt;
-저녁 : 유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치,   &lt;br&gt;
+아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
+점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
+저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
-저녁 : 유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료,   &lt;br&gt;
+점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 "
 </t>
         </is>
@@ -4179,10 +4179,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 5.06 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 4.29 최고 기온 : 7.35 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.85 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4203,10 +4203,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 5.06 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 4.29 최고 기온 : 7.35 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.85 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4227,10 +4227,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 5.06 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 4.29 최고 기온 : 7.35 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.85 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4251,10 +4251,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 5.06 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 4.29 최고 기온 : 7.35 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.85 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4275,10 +4275,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 5.06 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 4.29 최고 기온 : 7.35 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.85 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4299,10 +4299,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 5.06 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 4.29 최고 기온 : 7.35 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.85 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4323,10 +4323,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 5.06 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 4.29 최고 기온 : 7.35 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.85 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4347,10 +4347,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 19일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 5.06 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 4.29 최고 기온 : 7.35 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.85 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4371,10 +4371,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.29 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.21 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4395,10 +4395,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.29 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.21 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4419,10 +4419,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.29 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.21 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4443,10 +4443,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.29 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.21 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4467,10 +4467,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.29 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.21 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4491,10 +4491,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.29 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.21 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4515,10 +4515,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 20일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.29 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 6.36 최고 기온 : 9.78 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 8.21 &lt;br&gt;
+날씨 : 맑음 &lt;br&gt;
+최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -636,15 +636,15 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -666,15 +666,15 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -696,15 +696,15 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -726,15 +726,15 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -756,15 +756,15 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -786,15 +786,15 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -816,15 +816,15 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -846,15 +846,15 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -876,15 +876,15 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -906,15 +906,15 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -936,15 +936,15 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -966,15 +966,15 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -996,15 +996,15 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -1026,15 +1026,15 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -1056,15 +1056,15 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -1086,15 +1086,15 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 "
 </t>
@@ -4179,10 +4179,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.27 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.17 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4203,10 +4203,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.27 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.17 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4227,10 +4227,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.27 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.17 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4251,10 +4251,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.27 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.17 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4275,10 +4275,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.27 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.17 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4299,10 +4299,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.27 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.17 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4323,10 +4323,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.27 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.17 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4347,10 +4347,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.27 &lt;br&gt;
+날씨 : 튼구름 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.17 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4371,10 +4371,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4395,10 +4395,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4419,10 +4419,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4443,10 +4443,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4467,10 +4467,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4491,10 +4491,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4515,10 +4515,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -636,15 +636,15 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -666,15 +666,15 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -696,15 +696,15 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -726,15 +726,15 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -756,15 +756,15 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -786,15 +786,15 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -816,15 +816,15 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -846,15 +846,15 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -876,15 +876,15 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -906,15 +906,15 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -936,15 +936,15 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -966,15 +966,15 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -996,15 +996,15 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -1026,15 +1026,15 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -1056,15 +1056,15 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 </t>
         </is>
@@ -1086,15 +1086,15 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 22일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 24일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드,   &lt;br&gt;
-점심 : 수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기  &lt;br&gt;
-저녁 : 김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치,   &lt;br&gt;
+아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일,   &lt;br&gt;
+점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
 "
 </t>
@@ -4179,10 +4179,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.59 &lt;br&gt;
 날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.03 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4203,10 +4203,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.59 &lt;br&gt;
 날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.03 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4227,10 +4227,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.59 &lt;br&gt;
 날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.03 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4251,10 +4251,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.59 &lt;br&gt;
 날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.03 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4275,10 +4275,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.59 &lt;br&gt;
 날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.03 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4299,10 +4299,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.59 &lt;br&gt;
 날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.03 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4323,10 +4323,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.59 &lt;br&gt;
 날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.03 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4347,10 +4347,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 22일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 6.85 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 9.59 &lt;br&gt;
 날씨 : 맑음 &lt;br&gt;
-최저 기온 : 5.41 최고 기온 : 8.21 &lt;br&gt;
+최저 기온 : 7.19 최고 기온 : 12.03 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4371,10 +4371,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4395,10 +4395,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4419,10 +4419,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4443,10 +4443,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4467,10 +4467,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4491,10 +4491,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4515,10 +4515,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 23일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.21 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 6.09 최고 기온 : 10.68 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.35 &lt;br&gt;
+날씨 : 온흐림 &lt;br&gt;
+최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
 </t>
         </is>
       </c>

--- a/mysite/dataset/answerfile.xlsx
+++ b/mysite/dataset/answerfile.xlsx
@@ -636,16 +636,16 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -666,16 +666,16 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -696,16 +696,16 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -726,16 +726,16 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -756,16 +756,16 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -786,16 +786,16 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -816,16 +816,16 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -846,16 +846,16 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -876,16 +876,16 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -906,16 +906,16 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -936,16 +936,16 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -966,16 +966,16 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -996,16 +996,16 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1026,16 +1026,16 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1056,16 +1056,16 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 </t>
         </is>
       </c>
@@ -1086,16 +1086,16 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">"2024년 11월 24일 학식입니다. &lt;br&gt;
+          <t xml:space="preserve">"2024년 11월 25일 학식입니다. &lt;br&gt;
 학색식당(기숙사 식당)  &lt;br&gt;
-아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+아침 : 황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, ,   &lt;br&gt;
+점심 : 어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치,   &lt;br&gt;
  &lt;br&gt;
 교직원식당  &lt;br&gt;
 아침 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-점심 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
-저녁 : 메뉴를 찾을 수 없습니다.   &lt;br&gt;
+점심 : 계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일,   &lt;br&gt;
+저녁 : 근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료,   &lt;br&gt;
 "
 </t>
         </is>
@@ -4179,10 +4179,10 @@
       </c>
       <c r="C143" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.39 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 7.19 최고 기온 : 10.46 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.68 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4203,10 +4203,10 @@
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.39 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 7.19 최고 기온 : 10.46 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.68 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4227,10 +4227,10 @@
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.39 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 7.19 최고 기온 : 10.46 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.68 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4251,10 +4251,10 @@
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.39 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 7.19 최고 기온 : 10.46 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.68 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4275,10 +4275,10 @@
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.39 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 7.19 최고 기온 : 10.46 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.68 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4299,10 +4299,10 @@
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.39 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 7.19 최고 기온 : 10.46 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.68 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4323,10 +4323,10 @@
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.39 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 7.19 최고 기온 : 10.46 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.68 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4347,10 +4347,10 @@
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 24일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 8.39 &lt;br&gt;
-날씨 : 맑음 &lt;br&gt;
-최저 기온 : 7.19 최고 기온 : 10.46 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 11.68 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 10.94 최고 기온 : 12.89 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4371,10 +4371,10 @@
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.35 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.39 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4395,10 +4395,10 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.35 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.39 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4419,10 +4419,10 @@
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.35 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.39 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4443,10 +4443,10 @@
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.35 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.39 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4467,10 +4467,10 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.35 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.39 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4491,10 +4491,10 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.35 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.39 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
 </t>
         </is>
       </c>
@@ -4515,10 +4515,10 @@
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024년 11월 25일 학교 주변 날씨입니다. &lt;br&gt;
-온도 : 11.35 &lt;br&gt;
-날씨 : 온흐림 &lt;br&gt;
-최저 기온 : 8 최고 기온 : 13.61 &lt;br&gt;
+          <t xml:space="preserve">2024년 11월 26일 학교 주변 날씨입니다. &lt;br&gt;
+온도 : 6.39 &lt;br&gt;
+날씨 : 실 비 &lt;br&gt;
+최저 기온 : 3.63 최고 기온 : 9.95 &lt;br&gt;
 </t>
         </is>
       </c>
